--- a/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040517029834035</v>
+        <v>1.032449593353056</v>
       </c>
       <c r="D2">
-        <v>1.057531300919734</v>
+        <v>1.051352943908689</v>
       </c>
       <c r="E2">
-        <v>1.051354843406261</v>
+        <v>1.044963932769462</v>
       </c>
       <c r="F2">
-        <v>1.063337493395534</v>
+        <v>1.056981699246115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.068443753471816</v>
+        <v>1.065473743267101</v>
       </c>
       <c r="J2">
-        <v>1.061549914647838</v>
+        <v>1.053701242835756</v>
       </c>
       <c r="K2">
-        <v>1.068243356602455</v>
+        <v>1.062140371840584</v>
       </c>
       <c r="L2">
-        <v>1.062142247996081</v>
+        <v>1.055830470683541</v>
       </c>
       <c r="M2">
-        <v>1.073979707220323</v>
+        <v>1.06770041538494</v>
       </c>
       <c r="N2">
-        <v>1.063057437288115</v>
+        <v>1.055197619461804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047026764580797</v>
+        <v>1.036633354801785</v>
       </c>
       <c r="D3">
-        <v>1.062724242641939</v>
+        <v>1.054633109970171</v>
       </c>
       <c r="E3">
-        <v>1.056868500123002</v>
+        <v>1.048406481930766</v>
       </c>
       <c r="F3">
-        <v>1.068989222697797</v>
+        <v>1.060634501460933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070909101011821</v>
+        <v>1.067007441429754</v>
       </c>
       <c r="J3">
-        <v>1.066312653723399</v>
+        <v>1.05617284131885</v>
       </c>
       <c r="K3">
-        <v>1.072612854032892</v>
+        <v>1.064611601003612</v>
       </c>
       <c r="L3">
-        <v>1.066821990225066</v>
+        <v>1.058455305550614</v>
       </c>
       <c r="M3">
-        <v>1.078809386947182</v>
+        <v>1.070546165075979</v>
       </c>
       <c r="N3">
-        <v>1.067826939999457</v>
+        <v>1.057672727898241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051131214765313</v>
+        <v>1.03929020818101</v>
       </c>
       <c r="D4">
-        <v>1.066000265573831</v>
+        <v>1.056718467956043</v>
       </c>
       <c r="E4">
-        <v>1.060349561478781</v>
+        <v>1.050597771618864</v>
       </c>
       <c r="F4">
-        <v>1.072557323351861</v>
+        <v>1.062958894660215</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072450893593139</v>
+        <v>1.067972093054048</v>
       </c>
       <c r="J4">
-        <v>1.069311627845374</v>
+        <v>1.05773960154962</v>
       </c>
       <c r="K4">
-        <v>1.075362402705458</v>
+        <v>1.066177350692179</v>
       </c>
       <c r="L4">
-        <v>1.069770350389246</v>
+        <v>1.060121596376178</v>
       </c>
       <c r="M4">
-        <v>1.081852344824003</v>
+        <v>1.072352505259112</v>
       </c>
       <c r="N4">
-        <v>1.070830173008672</v>
+        <v>1.059241713108249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052832155840859</v>
+        <v>1.040395487925513</v>
       </c>
       <c r="D5">
-        <v>1.067358258384555</v>
+        <v>1.057586517838208</v>
       </c>
       <c r="E5">
-        <v>1.061793209949691</v>
+        <v>1.051510569320646</v>
       </c>
       <c r="F5">
-        <v>1.07403703386011</v>
+        <v>1.063926964445779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073086752813726</v>
+        <v>1.068371132187659</v>
       </c>
       <c r="J5">
-        <v>1.070553440226291</v>
+        <v>1.058390690274721</v>
       </c>
       <c r="K5">
-        <v>1.076500484459444</v>
+        <v>1.066827827303419</v>
       </c>
       <c r="L5">
-        <v>1.070991592200164</v>
+        <v>1.060814620940269</v>
       </c>
       <c r="M5">
-        <v>1.083112798306667</v>
+        <v>1.07310373074193</v>
       </c>
       <c r="N5">
-        <v>1.072073748905608</v>
+        <v>1.05989372645402</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05311634483907</v>
+        <v>1.040580396313886</v>
       </c>
       <c r="D6">
-        <v>1.067585167735067</v>
+        <v>1.057731768082914</v>
       </c>
       <c r="E6">
-        <v>1.062034470914214</v>
+        <v>1.051663345720074</v>
       </c>
       <c r="F6">
-        <v>1.074284319375285</v>
+        <v>1.064088981696255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073192808005885</v>
+        <v>1.068437755490214</v>
       </c>
       <c r="J6">
-        <v>1.07076085871141</v>
+        <v>1.058499572545187</v>
       </c>
       <c r="K6">
-        <v>1.076690550143179</v>
+        <v>1.066936595742981</v>
       </c>
       <c r="L6">
-        <v>1.071195597392352</v>
+        <v>1.060930549975597</v>
       </c>
       <c r="M6">
-        <v>1.083323355265454</v>
+        <v>1.073229392840041</v>
       </c>
       <c r="N6">
-        <v>1.072281461948768</v>
+        <v>1.060002763349799</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051154037796546</v>
+        <v>1.039305022305887</v>
       </c>
       <c r="D7">
-        <v>1.066018485622232</v>
+        <v>1.056730100479683</v>
       </c>
       <c r="E7">
-        <v>1.060368928127054</v>
+        <v>1.050610001212661</v>
       </c>
       <c r="F7">
-        <v>1.072577173914478</v>
+        <v>1.06297186546623</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072459437727544</v>
+        <v>1.06797745039014</v>
       </c>
       <c r="J7">
-        <v>1.069328294375026</v>
+        <v>1.05774833093005</v>
       </c>
       <c r="K7">
-        <v>1.075377678846233</v>
+        <v>1.066186072632641</v>
       </c>
       <c r="L7">
-        <v>1.06978673931472</v>
+        <v>1.060130885735149</v>
       </c>
       <c r="M7">
-        <v>1.081869259858377</v>
+        <v>1.072362574934072</v>
       </c>
       <c r="N7">
-        <v>1.070846863206709</v>
+        <v>1.0592504548854</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042740113099734</v>
+        <v>1.033874171719039</v>
       </c>
       <c r="D8">
-        <v>1.059304267094889</v>
+        <v>1.052469335628277</v>
       </c>
       <c r="E8">
-        <v>1.053236744170296</v>
+        <v>1.046135029957472</v>
       </c>
       <c r="F8">
-        <v>1.065266547011566</v>
+        <v>1.058224474532533</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069288300383925</v>
+        <v>1.065997899026939</v>
       </c>
       <c r="J8">
-        <v>1.063177202660355</v>
+        <v>1.054543396107557</v>
       </c>
       <c r="K8">
-        <v>1.069736658196643</v>
+        <v>1.062982558465307</v>
       </c>
       <c r="L8">
-        <v>1.063740826626267</v>
+        <v>1.056724334818162</v>
       </c>
       <c r="M8">
-        <v>1.075629473484737</v>
+        <v>1.068669549575808</v>
       </c>
       <c r="N8">
-        <v>1.064687036236263</v>
+        <v>1.056040968687848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027027914424473</v>
+        <v>1.02390072706619</v>
       </c>
       <c r="D9">
-        <v>1.046784514630752</v>
+        <v>1.044664986405244</v>
       </c>
       <c r="E9">
-        <v>1.039958885142389</v>
+        <v>1.03795940598855</v>
       </c>
       <c r="F9">
-        <v>1.05165553832268</v>
+        <v>1.049545308558907</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06326723951198</v>
+        <v>1.062290316512727</v>
       </c>
       <c r="J9">
-        <v>1.051661065809194</v>
+        <v>1.048636829018923</v>
       </c>
       <c r="K9">
-        <v>1.0591615565446</v>
+        <v>1.057072708660393</v>
       </c>
       <c r="L9">
-        <v>1.05243529615753</v>
+        <v>1.050465240240732</v>
       </c>
       <c r="M9">
-        <v>1.063962664908256</v>
+        <v>1.061882623053881</v>
       </c>
       <c r="N9">
-        <v>1.053154545149853</v>
+        <v>1.050126013596455</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015864765092737</v>
+        <v>1.016953538207899</v>
       </c>
       <c r="D10">
-        <v>1.037907778667412</v>
+        <v>1.039245213842257</v>
       </c>
       <c r="E10">
-        <v>1.030558291882199</v>
+        <v>1.032295702270338</v>
       </c>
       <c r="F10">
-        <v>1.042018622445161</v>
+        <v>1.043528701925805</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058925537964102</v>
+        <v>1.05966106594441</v>
       </c>
       <c r="J10">
-        <v>1.043462777994812</v>
+        <v>1.044510294910494</v>
       </c>
       <c r="K10">
-        <v>1.051624742825131</v>
+        <v>1.052940281481834</v>
       </c>
       <c r="L10">
-        <v>1.04439688882242</v>
+        <v>1.046105344042328</v>
       </c>
       <c r="M10">
-        <v>1.055668513839955</v>
+        <v>1.057154125152431</v>
       </c>
       <c r="N10">
-        <v>1.044944614826418</v>
+        <v>1.045993619336273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010844158889576</v>
+        <v>1.013868156520353</v>
       </c>
       <c r="D11">
-        <v>1.033921244862234</v>
+        <v>1.036842745947417</v>
       </c>
       <c r="E11">
-        <v>1.026339548842589</v>
+        <v>1.029788325390908</v>
       </c>
       <c r="F11">
-        <v>1.037693761469657</v>
+        <v>1.040864097002218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056958580952422</v>
+        <v>1.058482802739166</v>
       </c>
       <c r="J11">
-        <v>1.039772664568229</v>
+        <v>1.042675171733508</v>
       </c>
       <c r="K11">
-        <v>1.048230606425038</v>
+        <v>1.051101773753046</v>
       </c>
       <c r="L11">
-        <v>1.040781266453549</v>
+        <v>1.044169523670984</v>
       </c>
       <c r="M11">
-        <v>1.051938196238687</v>
+        <v>1.055054438693245</v>
       </c>
       <c r="N11">
-        <v>1.041249261015508</v>
+        <v>1.044155890073883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008948941935697</v>
+        <v>1.012709922356123</v>
       </c>
       <c r="D12">
-        <v>1.032417376897685</v>
+        <v>1.03594161599564</v>
       </c>
       <c r="E12">
-        <v>1.024748524891768</v>
+        <v>1.028848322886186</v>
       </c>
       <c r="F12">
-        <v>1.036062711914133</v>
+        <v>1.039864998605414</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056214014943679</v>
+        <v>1.058038947474562</v>
       </c>
       <c r="J12">
-        <v>1.038379336619865</v>
+        <v>1.041985948721911</v>
       </c>
       <c r="K12">
-        <v>1.046948793395523</v>
+        <v>1.05041117273797</v>
       </c>
       <c r="L12">
-        <v>1.039416460633158</v>
+        <v>1.043442946318965</v>
       </c>
       <c r="M12">
-        <v>1.050530152787647</v>
+        <v>1.054266327682847</v>
       </c>
       <c r="N12">
-        <v>1.03985395438164</v>
+        <v>1.043465688286554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009356884356654</v>
+        <v>1.012958928792281</v>
       </c>
       <c r="D13">
-        <v>1.032741034680774</v>
+        <v>1.036135313616039</v>
       </c>
       <c r="E13">
-        <v>1.025090920444802</v>
+        <v>1.029050354689169</v>
       </c>
       <c r="F13">
-        <v>1.03641372131665</v>
+        <v>1.040079738611125</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056374373385072</v>
+        <v>1.058134439979743</v>
       </c>
       <c r="J13">
-        <v>1.038679262806573</v>
+        <v>1.042134137589616</v>
       </c>
       <c r="K13">
-        <v>1.047224725517463</v>
+        <v>1.050559662586756</v>
       </c>
       <c r="L13">
-        <v>1.039710229053547</v>
+        <v>1.043599145655155</v>
       </c>
       <c r="M13">
-        <v>1.050833225239858</v>
+        <v>1.054435756802349</v>
       </c>
       <c r="N13">
-        <v>1.040154306497935</v>
+        <v>1.043614087599449</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010688132542871</v>
+        <v>1.013772668638768</v>
       </c>
       <c r="D14">
-        <v>1.03379741576601</v>
+        <v>1.036768438980486</v>
       </c>
       <c r="E14">
-        <v>1.026208534417879</v>
+        <v>1.029710803334389</v>
       </c>
       <c r="F14">
-        <v>1.037559451175204</v>
+        <v>1.040781704409257</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056897324923093</v>
+        <v>1.058446241233129</v>
       </c>
       <c r="J14">
-        <v>1.039657963612986</v>
+        <v>1.0426183568169</v>
       </c>
       <c r="K14">
-        <v>1.04812509031335</v>
+        <v>1.051044847368941</v>
       </c>
       <c r="L14">
-        <v>1.040668905362458</v>
+        <v>1.044109620052081</v>
       </c>
       <c r="M14">
-        <v>1.051822274306822</v>
+        <v>1.054989462438575</v>
       </c>
       <c r="N14">
-        <v>1.041134397171751</v>
+        <v>1.044098994473576</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011504266320654</v>
+        <v>1.014272407667606</v>
       </c>
       <c r="D15">
-        <v>1.034445175475907</v>
+        <v>1.037157357605102</v>
       </c>
       <c r="E15">
-        <v>1.026893899025579</v>
+        <v>1.030116568991881</v>
       </c>
       <c r="F15">
-        <v>1.038262057004053</v>
+        <v>1.041212957196774</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057217656022641</v>
+        <v>1.058637524481381</v>
       </c>
       <c r="J15">
-        <v>1.040257920943886</v>
+        <v>1.042915686427716</v>
       </c>
       <c r="K15">
-        <v>1.04867699552404</v>
+        <v>1.05134275601377</v>
       </c>
       <c r="L15">
-        <v>1.041256639935844</v>
+        <v>1.044423132737745</v>
       </c>
       <c r="M15">
-        <v>1.052428637159678</v>
+        <v>1.055329522178372</v>
       </c>
       <c r="N15">
-        <v>1.041735206510877</v>
+        <v>1.044396746326545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016193840970653</v>
+        <v>1.017156628958928</v>
       </c>
       <c r="D16">
-        <v>1.038169206761886</v>
+        <v>1.039403452669405</v>
       </c>
       <c r="E16">
-        <v>1.030835009757057</v>
+        <v>1.032460917605487</v>
       </c>
       <c r="F16">
-        <v>1.042302299914398</v>
+        <v>1.043704256305793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059054172633554</v>
+        <v>1.059738406849198</v>
       </c>
       <c r="J16">
-        <v>1.04370459266206</v>
+        <v>1.044631041432442</v>
       </c>
       <c r="K16">
-        <v>1.051847127413991</v>
+        <v>1.0530612354364</v>
       </c>
       <c r="L16">
-        <v>1.044633875778754</v>
+        <v>1.046232780581821</v>
       </c>
       <c r="M16">
-        <v>1.055913026032486</v>
+        <v>1.057292344972796</v>
       </c>
       <c r="N16">
-        <v>1.04518677289823</v>
+        <v>1.046114537332131</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019083928337542</v>
+        <v>1.018944752132523</v>
       </c>
       <c r="D17">
-        <v>1.040465849221212</v>
+        <v>1.040797201125268</v>
       </c>
       <c r="E17">
-        <v>1.033266316897909</v>
+        <v>1.033916480969079</v>
       </c>
       <c r="F17">
-        <v>1.044794749057513</v>
+        <v>1.045250793819683</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060182290177535</v>
+        <v>1.060418160254066</v>
       </c>
       <c r="J17">
-        <v>1.045827990115235</v>
+        <v>1.045693886010713</v>
       </c>
       <c r="K17">
-        <v>1.053799711173424</v>
+        <v>1.054125819821345</v>
       </c>
       <c r="L17">
-        <v>1.046715168442826</v>
+        <v>1.047354863823097</v>
       </c>
       <c r="M17">
-        <v>1.058060446467982</v>
+        <v>1.058509352213245</v>
       </c>
       <c r="N17">
-        <v>1.047313185819346</v>
+        <v>1.047178891271614</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020751800311913</v>
+        <v>1.019980326683701</v>
       </c>
       <c r="D18">
-        <v>1.041791777761764</v>
+        <v>1.041604806612629</v>
       </c>
       <c r="E18">
-        <v>1.034670281367968</v>
+        <v>1.034760211864008</v>
       </c>
       <c r="F18">
-        <v>1.046234013936425</v>
+        <v>1.046147164207251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060831974921202</v>
+        <v>1.060810826186154</v>
       </c>
       <c r="J18">
-        <v>1.047053120531522</v>
+        <v>1.046309186919722</v>
       </c>
       <c r="K18">
-        <v>1.054926120452323</v>
+        <v>1.05474205486628</v>
       </c>
       <c r="L18">
-        <v>1.04791624295674</v>
+        <v>1.048004751662206</v>
       </c>
       <c r="M18">
-        <v>1.059299713370589</v>
+        <v>1.059214198548076</v>
       </c>
       <c r="N18">
-        <v>1.048540056061348</v>
+        <v>1.047795065978489</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021317535834722</v>
+        <v>1.020332191649317</v>
       </c>
       <c r="D19">
-        <v>1.042241614262732</v>
+        <v>1.041879283956849</v>
       </c>
       <c r="E19">
-        <v>1.03514664204927</v>
+        <v>1.035047019237127</v>
       </c>
       <c r="F19">
-        <v>1.046722350762372</v>
+        <v>1.046451849234456</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061052113581408</v>
+        <v>1.060944073162935</v>
       </c>
       <c r="J19">
-        <v>1.04746862921962</v>
+        <v>1.04651821125708</v>
       </c>
       <c r="K19">
-        <v>1.055308118387239</v>
+        <v>1.05495138391375</v>
       </c>
       <c r="L19">
-        <v>1.048323632763016</v>
+        <v>1.048225575126103</v>
       </c>
       <c r="M19">
-        <v>1.0597200626994</v>
+        <v>1.059453692837116</v>
       </c>
       <c r="N19">
-        <v>1.048956154819444</v>
+        <v>1.048004387154381</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018775712977305</v>
+        <v>1.018753673752738</v>
       </c>
       <c r="D20">
-        <v>1.04022086581532</v>
+        <v>1.040648220596289</v>
       </c>
       <c r="E20">
-        <v>1.033006938831816</v>
+        <v>1.033760861149124</v>
       </c>
       <c r="F20">
-        <v>1.044528848820345</v>
+        <v>1.0450854574252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060062121254211</v>
+        <v>1.060345626092431</v>
       </c>
       <c r="J20">
-        <v>1.045601567844687</v>
+        <v>1.045580334857054</v>
       </c>
       <c r="K20">
-        <v>1.053591520338301</v>
+        <v>1.054012090316589</v>
       </c>
       <c r="L20">
-        <v>1.046493211151398</v>
+        <v>1.047234953428101</v>
       </c>
       <c r="M20">
-        <v>1.057831433754357</v>
+        <v>1.058379299870714</v>
       </c>
       <c r="N20">
-        <v>1.047086442003202</v>
+        <v>1.047065178862291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01029697006129</v>
+        <v>1.013533383830105</v>
       </c>
       <c r="D21">
-        <v>1.033486989261985</v>
+        <v>1.036582243971144</v>
       </c>
       <c r="E21">
-        <v>1.025880102104191</v>
+        <v>1.029516559769033</v>
       </c>
       <c r="F21">
-        <v>1.037222756573493</v>
+        <v>1.040575254500269</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056743721399273</v>
+        <v>1.058354596399767</v>
       </c>
       <c r="J21">
-        <v>1.039370399649961</v>
+        <v>1.042475978133212</v>
       </c>
       <c r="K21">
-        <v>1.04786054964562</v>
+        <v>1.05090218765249</v>
       </c>
       <c r="L21">
-        <v>1.040387214035394</v>
+        <v>1.043959508548778</v>
       </c>
       <c r="M21">
-        <v>1.051531656824557</v>
+        <v>1.054826639032863</v>
       </c>
       <c r="N21">
-        <v>1.040846424834915</v>
+        <v>1.043956413595827</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004789203612115</v>
+        <v>1.010180357755942</v>
       </c>
       <c r="D22">
-        <v>1.02911859517605</v>
+        <v>1.033974992800654</v>
       </c>
       <c r="E22">
-        <v>1.021259357989289</v>
+        <v>1.026797733738247</v>
       </c>
       <c r="F22">
-        <v>1.032485763215921</v>
+        <v>1.037685211580843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054576089833117</v>
+        <v>1.057066791233096</v>
       </c>
       <c r="J22">
-        <v>1.035320623358338</v>
+        <v>1.040480137859157</v>
       </c>
       <c r="K22">
-        <v>1.044134466199923</v>
+        <v>1.048902163757832</v>
       </c>
       <c r="L22">
-        <v>1.036421108412054</v>
+        <v>1.041856380582229</v>
       </c>
       <c r="M22">
-        <v>1.047440018882148</v>
+        <v>1.052545343927498</v>
       </c>
       <c r="N22">
-        <v>1.036790897396443</v>
+        <v>1.041957738999657</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007726558569149</v>
+        <v>1.011964779278022</v>
       </c>
       <c r="D23">
-        <v>1.031447706550952</v>
+        <v>1.035362095962236</v>
       </c>
       <c r="E23">
-        <v>1.023722780070113</v>
+        <v>1.028243937393885</v>
       </c>
       <c r="F23">
-        <v>1.035011161418018</v>
+        <v>1.039222573607022</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055733211396273</v>
+        <v>1.057752967029476</v>
       </c>
       <c r="J23">
-        <v>1.037480574672371</v>
+        <v>1.041542453674539</v>
       </c>
       <c r="K23">
-        <v>1.046121898798974</v>
+        <v>1.049966761888276</v>
       </c>
       <c r="L23">
-        <v>1.038536210381337</v>
+        <v>1.042975546059193</v>
       </c>
       <c r="M23">
-        <v>1.049622032713335</v>
+        <v>1.053759335343998</v>
       </c>
       <c r="N23">
-        <v>1.038953916089091</v>
+        <v>1.043021563425346</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018915037278768</v>
+        <v>1.018840036696453</v>
       </c>
       <c r="D24">
-        <v>1.040331605377054</v>
+        <v>1.040715554973005</v>
       </c>
       <c r="E24">
-        <v>1.033124184295144</v>
+        <v>1.033831195319056</v>
       </c>
       <c r="F24">
-        <v>1.044649042489936</v>
+        <v>1.045160183405579</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060116446085849</v>
+        <v>1.060378412955384</v>
       </c>
       <c r="J24">
-        <v>1.045703919649917</v>
+        <v>1.04563165804658</v>
       </c>
       <c r="K24">
-        <v>1.053685631335907</v>
+        <v>1.054063494344901</v>
       </c>
       <c r="L24">
-        <v>1.046593543874658</v>
+        <v>1.047289149979738</v>
       </c>
       <c r="M24">
-        <v>1.057934955686913</v>
+        <v>1.058438080394119</v>
       </c>
       <c r="N24">
-        <v>1.047188939159736</v>
+        <v>1.047116574936633</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031203883846102</v>
+        <v>1.026529600535655</v>
       </c>
       <c r="D25">
-        <v>1.050109312043201</v>
+        <v>1.046719470674897</v>
       </c>
       <c r="E25">
-        <v>1.043482613268029</v>
+        <v>1.040109198163698</v>
       </c>
       <c r="F25">
-        <v>1.055267771049598</v>
+        <v>1.051828203619829</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064878701546765</v>
+        <v>1.063275809283382</v>
       </c>
       <c r="J25">
-        <v>1.054724888311543</v>
+        <v>1.050195974966395</v>
       </c>
       <c r="K25">
-        <v>1.061976538978481</v>
+        <v>1.058633370735915</v>
       </c>
       <c r="L25">
-        <v>1.055441437226002</v>
+        <v>1.052115217104693</v>
       </c>
       <c r="M25">
-        <v>1.067064697401198</v>
+        <v>1.063671908685671</v>
       </c>
       <c r="N25">
-        <v>1.056222718631581</v>
+        <v>1.051687373710009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032449593353056</v>
+        <v>0.9824983919318472</v>
       </c>
       <c r="D2">
-        <v>1.051352943908689</v>
+        <v>1.004473823379318</v>
       </c>
       <c r="E2">
-        <v>1.044963932769462</v>
+        <v>0.9913558853163592</v>
       </c>
       <c r="F2">
-        <v>1.056981699246115</v>
+        <v>0.9583996194030854</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065473743267101</v>
+        <v>1.038787124464537</v>
       </c>
       <c r="J2">
-        <v>1.053701242835756</v>
+        <v>1.005215478444011</v>
       </c>
       <c r="K2">
-        <v>1.062140371840584</v>
+        <v>1.015871180631814</v>
       </c>
       <c r="L2">
-        <v>1.055830470683541</v>
+        <v>1.002936974633783</v>
       </c>
       <c r="M2">
-        <v>1.06770041538494</v>
+        <v>0.9704706364341593</v>
       </c>
       <c r="N2">
-        <v>1.055197619461804</v>
+        <v>1.006642999723229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036633354801785</v>
+        <v>0.9878983401614988</v>
       </c>
       <c r="D3">
-        <v>1.054633109970171</v>
+        <v>1.008521553905245</v>
       </c>
       <c r="E3">
-        <v>1.048406481930766</v>
+        <v>0.9957021634579197</v>
       </c>
       <c r="F3">
-        <v>1.060634501460933</v>
+        <v>0.9666183304517427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067007441429754</v>
+        <v>1.040337934031675</v>
       </c>
       <c r="J3">
-        <v>1.05617284131885</v>
+        <v>1.00872443475585</v>
       </c>
       <c r="K3">
-        <v>1.064611601003612</v>
+        <v>1.019046548714747</v>
       </c>
       <c r="L3">
-        <v>1.058455305550614</v>
+        <v>1.006390332887396</v>
       </c>
       <c r="M3">
-        <v>1.070546165075979</v>
+        <v>0.9776969380758049</v>
       </c>
       <c r="N3">
-        <v>1.057672727898241</v>
+        <v>1.010156939155514</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03929020818101</v>
+        <v>0.9913001260195591</v>
       </c>
       <c r="D4">
-        <v>1.056718467956043</v>
+        <v>1.011070299086254</v>
       </c>
       <c r="E4">
-        <v>1.050597771618864</v>
+        <v>0.9984465369651305</v>
       </c>
       <c r="F4">
-        <v>1.062958894660215</v>
+        <v>0.971781921243175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067972093054048</v>
+        <v>1.041297388746078</v>
       </c>
       <c r="J4">
-        <v>1.05773960154962</v>
+        <v>1.010929024306509</v>
       </c>
       <c r="K4">
-        <v>1.066177350692179</v>
+        <v>1.021036926489332</v>
       </c>
       <c r="L4">
-        <v>1.060121596376178</v>
+        <v>1.008563747147023</v>
       </c>
       <c r="M4">
-        <v>1.072352505259112</v>
+        <v>0.9822332824180411</v>
       </c>
       <c r="N4">
-        <v>1.059241713108249</v>
+        <v>1.012364659476204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040395487925513</v>
+        <v>0.9927091547051565</v>
       </c>
       <c r="D5">
-        <v>1.057586517838208</v>
+        <v>1.012125627128829</v>
       </c>
       <c r="E5">
-        <v>1.051510569320646</v>
+        <v>0.9995847354302716</v>
       </c>
       <c r="F5">
-        <v>1.063926964445779</v>
+        <v>0.9739178573984963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068371132187659</v>
+        <v>1.041690531309053</v>
       </c>
       <c r="J5">
-        <v>1.058390690274721</v>
+        <v>1.011840726327069</v>
       </c>
       <c r="K5">
-        <v>1.066827827303419</v>
+        <v>1.021858889915438</v>
       </c>
       <c r="L5">
-        <v>1.060814620940269</v>
+        <v>1.009463448819238</v>
       </c>
       <c r="M5">
-        <v>1.07310373074193</v>
+        <v>0.9841088110835673</v>
       </c>
       <c r="N5">
-        <v>1.05989372645402</v>
+        <v>1.013277656218207</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040580396313886</v>
+        <v>0.9929445289638139</v>
       </c>
       <c r="D6">
-        <v>1.057731768082914</v>
+        <v>1.01230189262605</v>
       </c>
       <c r="E6">
-        <v>1.051663345720074</v>
+        <v>0.9997749532531266</v>
       </c>
       <c r="F6">
-        <v>1.064088981696255</v>
+        <v>0.9742745065095961</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068437755490214</v>
+        <v>1.041755951874099</v>
       </c>
       <c r="J6">
-        <v>1.058499572545187</v>
+        <v>1.011992937991762</v>
       </c>
       <c r="K6">
-        <v>1.066936595742981</v>
+        <v>1.021996050478328</v>
       </c>
       <c r="L6">
-        <v>1.060930549975597</v>
+        <v>1.009613709221017</v>
       </c>
       <c r="M6">
-        <v>1.073229392840041</v>
+        <v>0.9844219216430907</v>
       </c>
       <c r="N6">
-        <v>1.060002763349799</v>
+        <v>1.013430084040922</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039305022305887</v>
+        <v>0.9913190350675298</v>
       </c>
       <c r="D7">
-        <v>1.056730100479683</v>
+        <v>1.011084463068433</v>
       </c>
       <c r="E7">
-        <v>1.050610001212661</v>
+        <v>0.998461805743789</v>
       </c>
       <c r="F7">
-        <v>1.06297186546623</v>
+        <v>0.9718105959164717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06797745039014</v>
+        <v>1.041302681648267</v>
       </c>
       <c r="J7">
-        <v>1.05774833093005</v>
+        <v>1.01094126501475</v>
       </c>
       <c r="K7">
-        <v>1.066186072632641</v>
+        <v>1.021047966961533</v>
       </c>
       <c r="L7">
-        <v>1.060130885735149</v>
+        <v>1.008575823215881</v>
       </c>
       <c r="M7">
-        <v>1.072362574934072</v>
+        <v>0.9822584649524124</v>
       </c>
       <c r="N7">
-        <v>1.0592504548854</v>
+        <v>1.012376917567655</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033874171719039</v>
+        <v>0.9843430910741796</v>
       </c>
       <c r="D8">
-        <v>1.052469335628277</v>
+        <v>1.005856783656627</v>
       </c>
       <c r="E8">
-        <v>1.046135029957472</v>
+        <v>0.9928392606174412</v>
       </c>
       <c r="F8">
-        <v>1.058224474532533</v>
+        <v>0.9612105031938654</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065997899026939</v>
+        <v>1.039320547937275</v>
       </c>
       <c r="J8">
-        <v>1.054543396107557</v>
+        <v>1.006415425176849</v>
       </c>
       <c r="K8">
-        <v>1.062982558465307</v>
+        <v>1.016958001252022</v>
       </c>
       <c r="L8">
-        <v>1.056724334818162</v>
+        <v>1.004117110366441</v>
       </c>
       <c r="M8">
-        <v>1.068669549575808</v>
+        <v>0.9729428655096567</v>
       </c>
       <c r="N8">
-        <v>1.056040968687848</v>
+        <v>1.007844650518062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02390072706619</v>
+        <v>0.9712930010042437</v>
       </c>
       <c r="D9">
-        <v>1.044664986405244</v>
+        <v>0.9960717639914579</v>
       </c>
       <c r="E9">
-        <v>1.03795940598855</v>
+        <v>0.9823751221978794</v>
       </c>
       <c r="F9">
-        <v>1.049545308558907</v>
+        <v>0.9412417868004194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062290316512727</v>
+        <v>1.035474498238292</v>
       </c>
       <c r="J9">
-        <v>1.048636829018923</v>
+        <v>0.9979018573204205</v>
       </c>
       <c r="K9">
-        <v>1.057072708660393</v>
+        <v>1.00922889723033</v>
       </c>
       <c r="L9">
-        <v>1.050465240240732</v>
+        <v>0.9957607732439163</v>
       </c>
       <c r="M9">
-        <v>1.061882623053881</v>
+        <v>0.9553659916362328</v>
       </c>
       <c r="N9">
-        <v>1.050126013596455</v>
+        <v>0.9993189924187585</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016953538207899</v>
+        <v>0.9620055060381082</v>
       </c>
       <c r="D10">
-        <v>1.039245213842257</v>
+        <v>0.9891104579087696</v>
       </c>
       <c r="E10">
-        <v>1.032295702270338</v>
+        <v>0.9749690902053358</v>
       </c>
       <c r="F10">
-        <v>1.043528701925805</v>
+        <v>0.9268927145751206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05966106594441</v>
+        <v>1.032647892075467</v>
       </c>
       <c r="J10">
-        <v>1.044510294910494</v>
+        <v>0.9918121102211593</v>
       </c>
       <c r="K10">
-        <v>1.052940281481834</v>
+        <v>1.003679149853383</v>
       </c>
       <c r="L10">
-        <v>1.046105344042328</v>
+        <v>0.9898054867083573</v>
       </c>
       <c r="M10">
-        <v>1.057154125152431</v>
+        <v>0.942720543941054</v>
       </c>
       <c r="N10">
-        <v>1.045993619336273</v>
+        <v>0.9932205971801127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013868156520353</v>
+        <v>0.9578245307802986</v>
       </c>
       <c r="D11">
-        <v>1.036842745947417</v>
+        <v>0.985978767487906</v>
       </c>
       <c r="E11">
-        <v>1.029788325390908</v>
+        <v>0.9716459052617424</v>
       </c>
       <c r="F11">
-        <v>1.040864097002218</v>
+        <v>0.920388804186052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058482802739166</v>
+        <v>1.031355211486408</v>
       </c>
       <c r="J11">
-        <v>1.042675171733508</v>
+        <v>0.9890635639215812</v>
       </c>
       <c r="K11">
-        <v>1.051101773753046</v>
+        <v>1.001170038018913</v>
       </c>
       <c r="L11">
-        <v>1.044169523670984</v>
+        <v>0.9871231078121926</v>
       </c>
       <c r="M11">
-        <v>1.055054438693245</v>
+        <v>0.936986286638251</v>
       </c>
       <c r="N11">
-        <v>1.044155890073883</v>
+        <v>0.9904681476295266</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012709922356123</v>
+        <v>0.9562456323569103</v>
       </c>
       <c r="D12">
-        <v>1.03594161599564</v>
+        <v>0.9847965729908831</v>
       </c>
       <c r="E12">
-        <v>1.028848322886186</v>
+        <v>0.9703926619495034</v>
       </c>
       <c r="F12">
-        <v>1.039864998605414</v>
+        <v>0.9179248438441653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058038947474562</v>
+        <v>1.030864097966336</v>
       </c>
       <c r="J12">
-        <v>1.041985948721911</v>
+        <v>0.988024551649636</v>
       </c>
       <c r="K12">
-        <v>1.05041117273797</v>
+        <v>1.000220960442635</v>
       </c>
       <c r="L12">
-        <v>1.043442946318965</v>
+        <v>0.9861099575719121</v>
       </c>
       <c r="M12">
-        <v>1.054266327682847</v>
+        <v>0.9348136271080452</v>
       </c>
       <c r="N12">
-        <v>1.043465688286554</v>
+        <v>0.9894276598409787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012958928792281</v>
+        <v>0.9565855171188996</v>
       </c>
       <c r="D13">
-        <v>1.036135313616039</v>
+        <v>0.9850510376976556</v>
       </c>
       <c r="E13">
-        <v>1.029050354689169</v>
+        <v>0.970662364621839</v>
       </c>
       <c r="F13">
-        <v>1.040079738611125</v>
+        <v>0.9184556274080855</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058134439979743</v>
+        <v>1.030969950067738</v>
       </c>
       <c r="J13">
-        <v>1.042134137589616</v>
+        <v>0.9882482641621964</v>
       </c>
       <c r="K13">
-        <v>1.050559662586756</v>
+        <v>1.000425333774169</v>
       </c>
       <c r="L13">
-        <v>1.043599145655155</v>
+        <v>0.9863280628681097</v>
       </c>
       <c r="M13">
-        <v>1.054435756802349</v>
+        <v>0.9352816696387597</v>
       </c>
       <c r="N13">
-        <v>1.043614087599449</v>
+        <v>0.9896516900509669</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013772668638768</v>
+        <v>0.9576945589213365</v>
       </c>
       <c r="D14">
-        <v>1.036768438980486</v>
+        <v>0.9858814415008236</v>
       </c>
       <c r="E14">
-        <v>1.029710803334389</v>
+        <v>0.9715427052130092</v>
       </c>
       <c r="F14">
-        <v>1.040781704409257</v>
+        <v>0.9201861419989568</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058446241233129</v>
+        <v>1.031314843243381</v>
       </c>
       <c r="J14">
-        <v>1.0426183568169</v>
+        <v>0.9889780557805952</v>
       </c>
       <c r="K14">
-        <v>1.051044847368941</v>
+        <v>1.001091942576438</v>
       </c>
       <c r="L14">
-        <v>1.044109620052081</v>
+        <v>0.9870397106611918</v>
       </c>
       <c r="M14">
-        <v>1.054989462438575</v>
+        <v>0.9368075890736776</v>
       </c>
       <c r="N14">
-        <v>1.044098994473576</v>
+        <v>0.9903825180571724</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014272407667606</v>
+        <v>0.9583743823617726</v>
       </c>
       <c r="D15">
-        <v>1.037157357605102</v>
+        <v>0.9863905285774569</v>
       </c>
       <c r="E15">
-        <v>1.030116568991881</v>
+        <v>0.9720825681079782</v>
       </c>
       <c r="F15">
-        <v>1.041212957196774</v>
+        <v>0.9212458493830533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058637524481381</v>
+        <v>1.031525871747737</v>
       </c>
       <c r="J15">
-        <v>1.042915686427716</v>
+        <v>0.9894252669881465</v>
       </c>
       <c r="K15">
-        <v>1.05134275601377</v>
+        <v>1.001500362012317</v>
       </c>
       <c r="L15">
-        <v>1.044423132737745</v>
+        <v>0.9874759159991546</v>
       </c>
       <c r="M15">
-        <v>1.055329522178372</v>
+        <v>0.9377419764191186</v>
       </c>
       <c r="N15">
-        <v>1.044396746326545</v>
+        <v>0.990830364355934</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017156628958928</v>
+        <v>0.9622794636222434</v>
       </c>
       <c r="D16">
-        <v>1.039403452669405</v>
+        <v>0.9893157162196472</v>
       </c>
       <c r="E16">
-        <v>1.032460917605487</v>
+        <v>0.9751870733617579</v>
       </c>
       <c r="F16">
-        <v>1.043704256305793</v>
+        <v>0.9273178676761491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059738406849198</v>
+        <v>1.032732182871168</v>
       </c>
       <c r="J16">
-        <v>1.044631041432442</v>
+        <v>0.9919920619439678</v>
       </c>
       <c r="K16">
-        <v>1.0530612354364</v>
+        <v>1.003843342092469</v>
       </c>
       <c r="L16">
-        <v>1.046232780581821</v>
+        <v>0.9899812219897213</v>
       </c>
       <c r="M16">
-        <v>1.057292344972796</v>
+        <v>0.943095341675</v>
       </c>
       <c r="N16">
-        <v>1.046114537332131</v>
+        <v>0.9934008044550079</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018944752132523</v>
+        <v>0.9646850297271935</v>
       </c>
       <c r="D17">
-        <v>1.040797201125268</v>
+        <v>0.9911183010942225</v>
       </c>
       <c r="E17">
-        <v>1.033916480969079</v>
+        <v>0.9771023733053843</v>
       </c>
       <c r="F17">
-        <v>1.045250793819683</v>
+        <v>0.9310459099011887</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060418160254066</v>
+        <v>1.033470045771223</v>
       </c>
       <c r="J17">
-        <v>1.045693886010713</v>
+        <v>0.9935713792211857</v>
       </c>
       <c r="K17">
-        <v>1.054125819821345</v>
+        <v>1.005283871669814</v>
       </c>
       <c r="L17">
-        <v>1.047354863823097</v>
+        <v>0.9915241563687031</v>
       </c>
       <c r="M17">
-        <v>1.058509352213245</v>
+        <v>0.9463815574538033</v>
       </c>
       <c r="N17">
-        <v>1.047178891271614</v>
+        <v>0.9949823645439099</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019980326683701</v>
+        <v>0.9660729159280599</v>
       </c>
       <c r="D18">
-        <v>1.041604806612629</v>
+        <v>0.9921584869049607</v>
       </c>
       <c r="E18">
-        <v>1.034760211864008</v>
+        <v>0.9782084135574105</v>
       </c>
       <c r="F18">
-        <v>1.046147164207251</v>
+        <v>0.9331926995465198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060810826186154</v>
+        <v>1.033893842166507</v>
       </c>
       <c r="J18">
-        <v>1.046309186919722</v>
+        <v>0.9944818921126972</v>
       </c>
       <c r="K18">
-        <v>1.05474205486628</v>
+        <v>1.006113961932078</v>
       </c>
       <c r="L18">
-        <v>1.048004751662206</v>
+        <v>0.9924142075652413</v>
       </c>
       <c r="M18">
-        <v>1.059214198548076</v>
+        <v>0.9482736761167777</v>
       </c>
       <c r="N18">
-        <v>1.047795065978489</v>
+        <v>0.9958941704681646</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020332191649317</v>
+        <v>0.9665436197997971</v>
       </c>
       <c r="D19">
-        <v>1.041879283956849</v>
+        <v>0.9925112956358452</v>
       </c>
       <c r="E19">
-        <v>1.035047019237127</v>
+        <v>0.9785836978378107</v>
       </c>
       <c r="F19">
-        <v>1.046451849234456</v>
+        <v>0.9339201238750308</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060944073162935</v>
+        <v>1.03403724645792</v>
       </c>
       <c r="J19">
-        <v>1.04651821125708</v>
+        <v>0.9947905798017204</v>
       </c>
       <c r="K19">
-        <v>1.05495138391375</v>
+        <v>1.006395313078345</v>
       </c>
       <c r="L19">
-        <v>1.048225575126103</v>
+        <v>0.9927160446636601</v>
       </c>
       <c r="M19">
-        <v>1.059453692837116</v>
+        <v>0.9489147624783062</v>
       </c>
       <c r="N19">
-        <v>1.048004387154381</v>
+        <v>0.9962032965291132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018753673752738</v>
+        <v>0.964428524920053</v>
       </c>
       <c r="D20">
-        <v>1.040648220596289</v>
+        <v>0.9909260714895061</v>
       </c>
       <c r="E20">
-        <v>1.033760861149124</v>
+        <v>0.9768980396497808</v>
       </c>
       <c r="F20">
-        <v>1.0450854574252</v>
+        <v>0.9306488230842026</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060345626092431</v>
+        <v>1.033391565641014</v>
       </c>
       <c r="J20">
-        <v>1.045580334857054</v>
+        <v>0.9934030466555703</v>
       </c>
       <c r="K20">
-        <v>1.054012090316589</v>
+        <v>1.005130373846602</v>
       </c>
       <c r="L20">
-        <v>1.047234953428101</v>
+        <v>0.9913596481331058</v>
       </c>
       <c r="M20">
-        <v>1.058379299870714</v>
+        <v>0.9460315559570108</v>
       </c>
       <c r="N20">
-        <v>1.047065178862291</v>
+        <v>0.9948137929267438</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013533383830105</v>
+        <v>0.9573687054397766</v>
       </c>
       <c r="D21">
-        <v>1.036582243971144</v>
+        <v>0.9856374425234932</v>
       </c>
       <c r="E21">
-        <v>1.029516559769033</v>
+        <v>0.9712839995662834</v>
       </c>
       <c r="F21">
-        <v>1.040575254500269</v>
+        <v>0.9196779157369948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058354596399767</v>
+        <v>1.031213588599182</v>
       </c>
       <c r="J21">
-        <v>1.042475978133212</v>
+        <v>0.9887636607122531</v>
       </c>
       <c r="K21">
-        <v>1.05090218765249</v>
+        <v>1.000896124370826</v>
       </c>
       <c r="L21">
-        <v>1.043959508548778</v>
+        <v>0.9868306222459163</v>
       </c>
       <c r="M21">
-        <v>1.054826639032863</v>
+        <v>0.9363594560442676</v>
       </c>
       <c r="N21">
-        <v>1.043956413595827</v>
+        <v>0.9901678185232413</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010180357755942</v>
+        <v>0.9527789402758569</v>
       </c>
       <c r="D22">
-        <v>1.033974992800654</v>
+        <v>0.9822018964882427</v>
       </c>
       <c r="E22">
-        <v>1.026797733738247</v>
+        <v>0.967644274084788</v>
       </c>
       <c r="F22">
-        <v>1.037685211580843</v>
+        <v>0.9124989904434531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057066791233096</v>
+        <v>1.029780462361482</v>
       </c>
       <c r="J22">
-        <v>1.040480137859157</v>
+        <v>0.9857413228958196</v>
       </c>
       <c r="K22">
-        <v>1.048902163757832</v>
+        <v>0.9981343793220357</v>
       </c>
       <c r="L22">
-        <v>1.041856380582229</v>
+        <v>0.9838851585772848</v>
       </c>
       <c r="M22">
-        <v>1.052545343927498</v>
+        <v>0.9300288614906741</v>
       </c>
       <c r="N22">
-        <v>1.041957738999657</v>
+        <v>0.9871411886404415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011964779278022</v>
+        <v>0.9552270841090524</v>
       </c>
       <c r="D23">
-        <v>1.035362095962236</v>
+        <v>0.9840340845383074</v>
       </c>
       <c r="E23">
-        <v>1.028243937393885</v>
+        <v>0.9695846915211068</v>
       </c>
       <c r="F23">
-        <v>1.039222573607022</v>
+        <v>0.9163329726623444</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057752967029476</v>
+        <v>1.030546461366195</v>
       </c>
       <c r="J23">
-        <v>1.041542453674539</v>
+        <v>0.9873539883504252</v>
       </c>
       <c r="K23">
-        <v>1.049966761888276</v>
+        <v>0.9996082859994379</v>
       </c>
       <c r="L23">
-        <v>1.042975546059193</v>
+        <v>0.9854563282257407</v>
       </c>
       <c r="M23">
-        <v>1.053759335343998</v>
+        <v>0.9334098906491596</v>
       </c>
       <c r="N23">
-        <v>1.043021563425346</v>
+        <v>0.9887561442649683</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018840036696453</v>
+        <v>0.964544475353088</v>
       </c>
       <c r="D24">
-        <v>1.040715554973005</v>
+        <v>0.991012966385627</v>
       </c>
       <c r="E24">
-        <v>1.033831195319056</v>
+        <v>0.9769904035007293</v>
       </c>
       <c r="F24">
-        <v>1.045160183405579</v>
+        <v>0.9308283348408665</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060378412955384</v>
+        <v>1.033427047741738</v>
       </c>
       <c r="J24">
-        <v>1.04563165804658</v>
+        <v>0.9934791417922131</v>
       </c>
       <c r="K24">
-        <v>1.054063494344901</v>
+        <v>1.00519976417566</v>
       </c>
       <c r="L24">
-        <v>1.047289149979738</v>
+        <v>0.9914340128783027</v>
       </c>
       <c r="M24">
-        <v>1.058438080394119</v>
+        <v>0.9461897825384509</v>
       </c>
       <c r="N24">
-        <v>1.047116574936633</v>
+        <v>0.9948899961272083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026529600535655</v>
+        <v>0.9747640973209754</v>
       </c>
       <c r="D25">
-        <v>1.046719470674897</v>
+        <v>0.9986744437272284</v>
       </c>
       <c r="E25">
-        <v>1.040109198163698</v>
+        <v>0.9851517023675403</v>
       </c>
       <c r="F25">
-        <v>1.051828203619829</v>
+        <v>0.9465732534374325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063275809283382</v>
+        <v>1.036513081525859</v>
       </c>
       <c r="J25">
-        <v>1.050195974966395</v>
+        <v>1.00017165461753</v>
       </c>
       <c r="K25">
-        <v>1.058633370735915</v>
+        <v>1.011293372160497</v>
       </c>
       <c r="L25">
-        <v>1.052115217104693</v>
+        <v>0.9979849769509166</v>
       </c>
       <c r="M25">
-        <v>1.063671908685671</v>
+        <v>0.9600617299521296</v>
       </c>
       <c r="N25">
-        <v>1.051687373710009</v>
+        <v>1.001592013088379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824983919318472</v>
+        <v>0.9909979666085159</v>
       </c>
       <c r="D2">
-        <v>1.004473823379318</v>
+        <v>1.011241589340612</v>
       </c>
       <c r="E2">
-        <v>0.9913558853163592</v>
+        <v>0.9986724263551806</v>
       </c>
       <c r="F2">
-        <v>0.9583996194030854</v>
+        <v>1.012722559296463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038787124464537</v>
+        <v>1.042221209973291</v>
       </c>
       <c r="J2">
-        <v>1.005215478444011</v>
+        <v>1.013451301636954</v>
       </c>
       <c r="K2">
-        <v>1.015871180631814</v>
+        <v>1.022546501432227</v>
       </c>
       <c r="L2">
-        <v>1.002936974633783</v>
+        <v>1.010150287424217</v>
       </c>
       <c r="M2">
-        <v>0.9704706364341593</v>
+        <v>1.024007449087234</v>
       </c>
       <c r="N2">
-        <v>1.006642999723229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014890518729758</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.027572557846925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878983401614988</v>
+        <v>0.9956030462204783</v>
       </c>
       <c r="D3">
-        <v>1.008521553905245</v>
+        <v>1.014665315028616</v>
       </c>
       <c r="E3">
-        <v>0.9957021634579197</v>
+        <v>1.002343611323106</v>
       </c>
       <c r="F3">
-        <v>0.9666183304517427</v>
+        <v>1.016127995169105</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040337934031675</v>
+        <v>1.043458919746702</v>
       </c>
       <c r="J3">
-        <v>1.00872443475585</v>
+        <v>1.016214298574038</v>
       </c>
       <c r="K3">
-        <v>1.019046548714747</v>
+        <v>1.025113927118539</v>
       </c>
       <c r="L3">
-        <v>1.006390332887396</v>
+        <v>1.012946592776013</v>
       </c>
       <c r="M3">
-        <v>0.9776969380758049</v>
+        <v>1.026558591765687</v>
       </c>
       <c r="N3">
-        <v>1.010156939155514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017657439439422</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.029591650352877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913001260195591</v>
+        <v>0.9985143916704489</v>
       </c>
       <c r="D4">
-        <v>1.011070299086254</v>
+        <v>1.016828130291808</v>
       </c>
       <c r="E4">
-        <v>0.9984465369651305</v>
+        <v>1.004670432189719</v>
       </c>
       <c r="F4">
-        <v>0.971781921243175</v>
+        <v>1.018291730414626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041297388746078</v>
+        <v>1.044224484278792</v>
       </c>
       <c r="J4">
-        <v>1.010929024306509</v>
+        <v>1.017956175955381</v>
       </c>
       <c r="K4">
-        <v>1.021036926489332</v>
+        <v>1.026727610081347</v>
       </c>
       <c r="L4">
-        <v>1.008563747147023</v>
+        <v>1.014712814148093</v>
       </c>
       <c r="M4">
-        <v>0.9822332824180411</v>
+        <v>1.028174291290137</v>
       </c>
       <c r="N4">
-        <v>1.012364659476204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019401790486443</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.030870386761702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927091547051565</v>
+        <v>0.9997225110841558</v>
       </c>
       <c r="D5">
-        <v>1.012125627128829</v>
+        <v>1.017725160085815</v>
       </c>
       <c r="E5">
-        <v>0.9995847354302716</v>
+        <v>1.005637357279191</v>
       </c>
       <c r="F5">
-        <v>0.9739178573984963</v>
+        <v>1.019192155650918</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041690531309053</v>
+        <v>1.044538040661007</v>
       </c>
       <c r="J5">
-        <v>1.011840726327069</v>
+        <v>1.018677782086316</v>
       </c>
       <c r="K5">
-        <v>1.021858889915438</v>
+        <v>1.027394905436164</v>
       </c>
       <c r="L5">
-        <v>1.009463448819238</v>
+        <v>1.015445311908626</v>
       </c>
       <c r="M5">
-        <v>0.9841088110835673</v>
+        <v>1.028845402460412</v>
       </c>
       <c r="N5">
-        <v>1.013277656218207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020124421380853</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031401533276049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9929445289638139</v>
+        <v>0.9999244487196017</v>
       </c>
       <c r="D6">
-        <v>1.01230189262605</v>
+        <v>1.01787506917073</v>
       </c>
       <c r="E6">
-        <v>0.9997749532531266</v>
+        <v>1.005799058152634</v>
       </c>
       <c r="F6">
-        <v>0.9742745065095961</v>
+        <v>1.019342810044557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041755951874099</v>
+        <v>1.044590206908035</v>
       </c>
       <c r="J6">
-        <v>1.011992937991762</v>
+        <v>1.018798325838376</v>
       </c>
       <c r="K6">
-        <v>1.021996050478328</v>
+        <v>1.027506304999441</v>
       </c>
       <c r="L6">
-        <v>1.009613709221017</v>
+        <v>1.015567722665036</v>
       </c>
       <c r="M6">
-        <v>0.9844219216430907</v>
+        <v>1.02895761574705</v>
       </c>
       <c r="N6">
-        <v>1.013430084040922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020245136318868</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.031490343702973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9913190350675298</v>
+        <v>0.9985305960034078</v>
       </c>
       <c r="D7">
-        <v>1.011084463068433</v>
+        <v>1.016840163983547</v>
       </c>
       <c r="E7">
-        <v>0.998461805743789</v>
+        <v>1.004683396080462</v>
       </c>
       <c r="F7">
-        <v>0.9718105959164717</v>
+        <v>1.018303797711168</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041302681648267</v>
+        <v>1.044228706380542</v>
       </c>
       <c r="J7">
-        <v>1.01094126501475</v>
+        <v>1.017965859634805</v>
       </c>
       <c r="K7">
-        <v>1.021047966961533</v>
+        <v>1.02673656972969</v>
       </c>
       <c r="L7">
-        <v>1.008575823215881</v>
+        <v>1.014722640792569</v>
       </c>
       <c r="M7">
-        <v>0.9822584649524124</v>
+        <v>1.028183290310189</v>
       </c>
       <c r="N7">
-        <v>1.012376917567655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019411487917802</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.030877508979516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843430910741796</v>
+        <v>0.9925688048675938</v>
       </c>
       <c r="D8">
-        <v>1.005856783656627</v>
+        <v>1.012409763978453</v>
       </c>
       <c r="E8">
-        <v>0.9928392606174412</v>
+        <v>0.999923437880612</v>
       </c>
       <c r="F8">
-        <v>0.9612105031938654</v>
+        <v>1.013881883634255</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039320547937275</v>
+        <v>1.042646916496186</v>
       </c>
       <c r="J8">
-        <v>1.006415425176849</v>
+        <v>1.014394788530974</v>
       </c>
       <c r="K8">
-        <v>1.016958001252022</v>
+        <v>1.023424220533665</v>
       </c>
       <c r="L8">
-        <v>1.004117110366441</v>
+        <v>1.011104446348386</v>
       </c>
       <c r="M8">
-        <v>0.9729428655096567</v>
+        <v>1.024877042734908</v>
       </c>
       <c r="N8">
-        <v>1.007844650518062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015835345483397</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.02826079521058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9712930010042437</v>
+        <v>0.981511544254732</v>
       </c>
       <c r="D9">
-        <v>0.9960717639914579</v>
+        <v>1.004182764629183</v>
       </c>
       <c r="E9">
-        <v>0.9823751221978794</v>
+        <v>0.9911446314086819</v>
       </c>
       <c r="F9">
-        <v>0.9412417868004194</v>
+        <v>1.005769750777448</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035474498238292</v>
+        <v>1.039581054560942</v>
       </c>
       <c r="J9">
-        <v>0.9979018573204205</v>
+        <v>1.007734506004464</v>
       </c>
       <c r="K9">
-        <v>1.00922889723033</v>
+        <v>1.017208341967553</v>
       </c>
       <c r="L9">
-        <v>0.9957607732439163</v>
+        <v>1.004383033494254</v>
       </c>
       <c r="M9">
-        <v>0.9553659916362328</v>
+        <v>1.018769906293759</v>
       </c>
       <c r="N9">
-        <v>0.9993189924187585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009165604591754</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023427305196923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620055060381082</v>
+        <v>0.9738640873031101</v>
       </c>
       <c r="D10">
-        <v>0.9891104579087696</v>
+        <v>0.9984975502238203</v>
       </c>
       <c r="E10">
-        <v>0.9749690902053358</v>
+        <v>0.985123068166971</v>
       </c>
       <c r="F10">
-        <v>0.9268927145751206</v>
+        <v>1.000469081329289</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032647892075467</v>
+        <v>1.037392356179586</v>
       </c>
       <c r="J10">
-        <v>0.9918121102211593</v>
+        <v>1.003154456320055</v>
       </c>
       <c r="K10">
-        <v>1.003679149853383</v>
+        <v>1.012893984956474</v>
       </c>
       <c r="L10">
-        <v>0.9898054867083573</v>
+        <v>0.9997662277643802</v>
       </c>
       <c r="M10">
-        <v>0.942720543941054</v>
+        <v>1.01482987152972</v>
       </c>
       <c r="N10">
-        <v>0.9932205971801127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004579050711453</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.020361543015993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578245307802986</v>
+        <v>0.9715308215080259</v>
       </c>
       <c r="D11">
-        <v>0.985978767487906</v>
+        <v>0.996815184620805</v>
       </c>
       <c r="E11">
-        <v>0.9716459052617424</v>
+        <v>0.9834061278207041</v>
       </c>
       <c r="F11">
-        <v>0.920388804186052</v>
+        <v>1.00082180638649</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031355211486408</v>
+        <v>1.036828227487513</v>
       </c>
       <c r="J11">
-        <v>0.9890635639215812</v>
+        <v>1.002137858010853</v>
       </c>
       <c r="K11">
-        <v>1.001170038018913</v>
+        <v>1.011797412862024</v>
       </c>
       <c r="L11">
-        <v>0.9871231078121926</v>
+        <v>0.9986479150734335</v>
       </c>
       <c r="M11">
-        <v>0.936986286638251</v>
+        <v>1.015728241266153</v>
       </c>
       <c r="N11">
-        <v>0.9904681476295266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003561008716047</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021517436337503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562456323569103</v>
+        <v>0.9710212485713807</v>
       </c>
       <c r="D12">
-        <v>0.9847965729908831</v>
+        <v>0.9964731341931952</v>
       </c>
       <c r="E12">
-        <v>0.9703926619495034</v>
+        <v>0.9830907060226194</v>
       </c>
       <c r="F12">
-        <v>0.9179248438441653</v>
+        <v>1.001854692395718</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864097966336</v>
+        <v>1.036759888970979</v>
       </c>
       <c r="J12">
-        <v>0.988024551649636</v>
+        <v>1.002104772316414</v>
       </c>
       <c r="K12">
-        <v>1.000220960442635</v>
+        <v>1.011668216756283</v>
       </c>
       <c r="L12">
-        <v>0.9861099575719121</v>
+        <v>0.9985491933774595</v>
       </c>
       <c r="M12">
-        <v>0.9348136271080452</v>
+        <v>1.016946445480828</v>
       </c>
       <c r="N12">
-        <v>0.9894276598409787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003527876036127</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022812910306122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565855171188996</v>
+        <v>0.9718796906432234</v>
       </c>
       <c r="D13">
-        <v>0.9850510376976556</v>
+        <v>0.9971389676977989</v>
       </c>
       <c r="E13">
-        <v>0.970662364621839</v>
+        <v>0.9838285751288439</v>
       </c>
       <c r="F13">
-        <v>0.9184556274080855</v>
+        <v>1.003499350189471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030969950067738</v>
+        <v>1.037073882515177</v>
       </c>
       <c r="J13">
-        <v>0.9882482641621964</v>
+        <v>1.002826571483334</v>
       </c>
       <c r="K13">
-        <v>1.000425333774169</v>
+        <v>1.012276967687533</v>
       </c>
       <c r="L13">
-        <v>0.9863280628681097</v>
+        <v>0.9992271931487817</v>
       </c>
       <c r="M13">
-        <v>0.9352816696387597</v>
+        <v>1.01851600414359</v>
       </c>
       <c r="N13">
-        <v>0.9896516900509669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004250700240656</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.024334462862364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576945589213365</v>
+        <v>0.973083180586115</v>
       </c>
       <c r="D14">
-        <v>0.9858814415008236</v>
+        <v>0.9980483164584081</v>
       </c>
       <c r="E14">
-        <v>0.9715427052130092</v>
+        <v>0.9848073703998854</v>
       </c>
       <c r="F14">
-        <v>0.9201861419989568</v>
+        <v>1.004896565650728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031314843243381</v>
+        <v>1.037459869801481</v>
       </c>
       <c r="J14">
-        <v>0.9889780557805952</v>
+        <v>1.003657568936773</v>
       </c>
       <c r="K14">
-        <v>1.001091942576438</v>
+        <v>1.013024150084809</v>
       </c>
       <c r="L14">
-        <v>0.9870397106611918</v>
+        <v>1.000038953189907</v>
       </c>
       <c r="M14">
-        <v>0.9368075890736776</v>
+        <v>1.019743575439161</v>
       </c>
       <c r="N14">
-        <v>0.9903825180571724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005082877805796</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025480130987332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583743823617726</v>
+        <v>0.9736869181611855</v>
       </c>
       <c r="D15">
-        <v>0.9863905285774569</v>
+        <v>0.9984997853064365</v>
       </c>
       <c r="E15">
-        <v>0.9720825681079782</v>
+        <v>0.9852871264608293</v>
       </c>
       <c r="F15">
-        <v>0.9212458493830533</v>
+        <v>1.005420129712451</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031525871747737</v>
+        <v>1.037642535461712</v>
       </c>
       <c r="J15">
-        <v>0.9894252669881465</v>
+        <v>1.004038857798816</v>
       </c>
       <c r="K15">
-        <v>1.001500362012317</v>
+        <v>1.013377963751625</v>
       </c>
       <c r="L15">
-        <v>0.9874759159991546</v>
+        <v>1.000418439696476</v>
       </c>
       <c r="M15">
-        <v>0.9377419764191186</v>
+        <v>1.020169185523303</v>
       </c>
       <c r="N15">
-        <v>0.990830364355934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005464708141757</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.025854443512604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622794636222434</v>
+        <v>0.9767438862083125</v>
       </c>
       <c r="D16">
-        <v>0.9893157162196472</v>
+        <v>1.000767705911611</v>
       </c>
       <c r="E16">
-        <v>0.9751870733617579</v>
+        <v>0.9876731830216654</v>
       </c>
       <c r="F16">
-        <v>0.9273178676761491</v>
+        <v>1.007382655818988</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032732182871168</v>
+        <v>1.038520859274514</v>
       </c>
       <c r="J16">
-        <v>0.9919920619439678</v>
+        <v>1.005831732993859</v>
       </c>
       <c r="K16">
-        <v>1.003843342092469</v>
+        <v>1.015086475979897</v>
       </c>
       <c r="L16">
-        <v>0.9899812219897213</v>
+        <v>1.002231282692521</v>
       </c>
       <c r="M16">
-        <v>0.943095341675</v>
+        <v>1.021583591411853</v>
       </c>
       <c r="N16">
-        <v>0.9934008044550079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007260129425222</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.026933266466668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9646850297271935</v>
+        <v>0.9784674606758209</v>
       </c>
       <c r="D17">
-        <v>0.9911183010942225</v>
+        <v>1.002038033078355</v>
       </c>
       <c r="E17">
-        <v>0.9771023733053843</v>
+        <v>0.9890004718795932</v>
       </c>
       <c r="F17">
-        <v>0.9310459099011887</v>
+        <v>1.008162941376196</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033470045771223</v>
+        <v>1.038992064095986</v>
       </c>
       <c r="J17">
-        <v>0.9935713792211857</v>
+        <v>1.006779012554859</v>
       </c>
       <c r="K17">
-        <v>1.005283871669814</v>
+        <v>1.016010422307159</v>
       </c>
       <c r="L17">
-        <v>0.9915241563687031</v>
+        <v>1.003204151115271</v>
       </c>
       <c r="M17">
-        <v>0.9463815574538033</v>
+        <v>1.022029342623713</v>
       </c>
       <c r="N17">
-        <v>0.9949823645439099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008208754231855</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.027155174535362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9660729159280599</v>
+        <v>0.9791627390806479</v>
       </c>
       <c r="D18">
-        <v>0.9921584869049607</v>
+        <v>1.002533539319127</v>
       </c>
       <c r="E18">
-        <v>0.9782084135574105</v>
+        <v>0.9894982161808025</v>
       </c>
       <c r="F18">
-        <v>0.9331926995465198</v>
+        <v>1.007825903995125</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033893842166507</v>
+        <v>1.039141715441463</v>
       </c>
       <c r="J18">
-        <v>0.9944818921126972</v>
+        <v>1.007036742311722</v>
       </c>
       <c r="K18">
-        <v>1.006113961932078</v>
+        <v>1.016308683409438</v>
       </c>
       <c r="L18">
-        <v>0.9924142075652413</v>
+        <v>1.003500720239441</v>
       </c>
       <c r="M18">
-        <v>0.9482736761167777</v>
+        <v>1.021510905745637</v>
       </c>
       <c r="N18">
-        <v>0.9958941704681646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008466849994534</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.026504659143696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665436197997971</v>
+        <v>0.9788769273780435</v>
       </c>
       <c r="D19">
-        <v>0.9925112956358452</v>
+        <v>1.002287839981356</v>
       </c>
       <c r="E19">
-        <v>0.9785836978378107</v>
+        <v>0.9892006556488629</v>
       </c>
       <c r="F19">
-        <v>0.9339201238750308</v>
+        <v>1.00635858511301</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03403724645792</v>
+        <v>1.03898275683433</v>
       </c>
       <c r="J19">
-        <v>0.9947905798017204</v>
+        <v>1.006622943510047</v>
       </c>
       <c r="K19">
-        <v>1.006395313078345</v>
+        <v>1.016002866755597</v>
       </c>
       <c r="L19">
-        <v>0.9927160446636601</v>
+        <v>1.003142880316219</v>
       </c>
       <c r="M19">
-        <v>0.9489147624783062</v>
+        <v>1.020004496927799</v>
       </c>
       <c r="N19">
-        <v>0.9962032965291132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008052463551096</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.024983045689744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964428524920053</v>
+        <v>0.9758570794061471</v>
       </c>
       <c r="D20">
-        <v>0.9909260714895061</v>
+        <v>0.9999793278319545</v>
       </c>
       <c r="E20">
-        <v>0.9768980396497808</v>
+        <v>0.986690030064909</v>
       </c>
       <c r="F20">
-        <v>0.9306488230842026</v>
+        <v>1.001856965022251</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033391565641014</v>
+        <v>1.037969315619474</v>
       </c>
       <c r="J20">
-        <v>0.9934030466555703</v>
+        <v>1.004351475083991</v>
       </c>
       <c r="K20">
-        <v>1.005130373846602</v>
+        <v>1.014022540744672</v>
       </c>
       <c r="L20">
-        <v>0.9913596481331058</v>
+        <v>1.00097102766779</v>
       </c>
       <c r="M20">
-        <v>0.9460315559570108</v>
+        <v>1.015867240340791</v>
       </c>
       <c r="N20">
-        <v>0.9948137929267438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005777769379335</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021171745566755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573687054397766</v>
+        <v>0.9698710720532744</v>
       </c>
       <c r="D21">
-        <v>0.9856374425234932</v>
+        <v>0.9955200817766033</v>
       </c>
       <c r="E21">
-        <v>0.9712839995662834</v>
+        <v>0.9819692661000606</v>
       </c>
       <c r="F21">
-        <v>0.9196779157369948</v>
+        <v>0.9973450641055771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031213588599182</v>
+        <v>1.036204368376668</v>
       </c>
       <c r="J21">
-        <v>0.9887636607122531</v>
+        <v>1.000684807040005</v>
       </c>
       <c r="K21">
-        <v>1.000896124370826</v>
+        <v>1.010586827557192</v>
       </c>
       <c r="L21">
-        <v>0.9868306222459163</v>
+        <v>0.9973004818801683</v>
       </c>
       <c r="M21">
-        <v>0.9363594560442676</v>
+        <v>1.012376910238469</v>
       </c>
       <c r="N21">
-        <v>0.9901678185232413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.002105894246154</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.018367534748857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9527789402758569</v>
+        <v>0.9660743410678448</v>
       </c>
       <c r="D22">
-        <v>0.9822018964882427</v>
+        <v>0.9926963199798842</v>
       </c>
       <c r="E22">
-        <v>0.967644274084788</v>
+        <v>0.9789909193549132</v>
       </c>
       <c r="F22">
-        <v>0.9124989904434531</v>
+        <v>0.9946213120100384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780462361482</v>
+        <v>1.035075954344313</v>
       </c>
       <c r="J22">
-        <v>0.9857413228958196</v>
+        <v>0.9983793145706967</v>
       </c>
       <c r="K22">
-        <v>0.9981343793220357</v>
+        <v>1.008413866108898</v>
       </c>
       <c r="L22">
-        <v>0.9838851585772848</v>
+        <v>0.9949903839164604</v>
       </c>
       <c r="M22">
-        <v>0.9300288614906741</v>
+        <v>1.0103000801389</v>
       </c>
       <c r="N22">
-        <v>0.9871411886404415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.999797127713095</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.016723808352663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9552270841090524</v>
+        <v>0.9680968490412907</v>
       </c>
       <c r="D23">
-        <v>0.9840340845383074</v>
+        <v>0.99420036737378</v>
       </c>
       <c r="E23">
-        <v>0.9695846915211068</v>
+        <v>0.9805766063366746</v>
       </c>
       <c r="F23">
-        <v>0.9163329726623444</v>
+        <v>0.9960708078595736</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030546461366195</v>
+        <v>1.035678553334999</v>
       </c>
       <c r="J23">
-        <v>0.9873539883504252</v>
+        <v>0.9996077554237087</v>
       </c>
       <c r="K23">
-        <v>0.9996082859994379</v>
+        <v>1.009572100160469</v>
       </c>
       <c r="L23">
-        <v>0.9854563282257407</v>
+        <v>0.9962209270958916</v>
       </c>
       <c r="M23">
-        <v>0.9334098906491596</v>
+        <v>1.011405880057014</v>
       </c>
       <c r="N23">
-        <v>0.9887561442649683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.001027313093023</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.017599004436076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964544475353088</v>
+        <v>0.9758479891863174</v>
       </c>
       <c r="D24">
-        <v>0.991012966385627</v>
+        <v>0.9999674435947752</v>
       </c>
       <c r="E24">
-        <v>0.9769904035007293</v>
+        <v>0.9866720961417279</v>
       </c>
       <c r="F24">
-        <v>0.9308283348408665</v>
+        <v>1.001656619302439</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427047741738</v>
+        <v>1.037954938102537</v>
       </c>
       <c r="J24">
-        <v>0.9934791417922131</v>
+        <v>1.004308530291503</v>
       </c>
       <c r="K24">
-        <v>1.00519976417566</v>
+        <v>1.013995130984192</v>
       </c>
       <c r="L24">
-        <v>0.9914340128783027</v>
+        <v>1.00093737837488</v>
       </c>
       <c r="M24">
-        <v>0.9461897825384509</v>
+        <v>1.015654705172973</v>
       </c>
       <c r="N24">
-        <v>0.9948899961272083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005734763600316</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020961767607891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747640973209754</v>
+        <v>0.9844395816449805</v>
       </c>
       <c r="D25">
-        <v>0.9986744437272284</v>
+        <v>1.006362003538392</v>
       </c>
       <c r="E25">
-        <v>0.9851517023675403</v>
+        <v>0.9934632182581075</v>
       </c>
       <c r="F25">
-        <v>0.9465732534374325</v>
+        <v>1.007907118162921</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036513081525859</v>
+        <v>1.040407856751879</v>
       </c>
       <c r="J25">
-        <v>1.00017165461753</v>
+        <v>1.009502208229459</v>
       </c>
       <c r="K25">
-        <v>1.011293372160497</v>
+        <v>1.018862353910617</v>
       </c>
       <c r="L25">
-        <v>0.9979849769509166</v>
+        <v>1.006163864041717</v>
       </c>
       <c r="M25">
-        <v>0.9600617299521296</v>
+        <v>1.020383913971323</v>
       </c>
       <c r="N25">
-        <v>1.001592013088379</v>
+        <v>1.010935817156667</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024704714078351</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
@@ -433,43 +433,43 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909979666085159</v>
+        <v>1.019565613109248</v>
       </c>
       <c r="D2">
-        <v>1.011241589340612</v>
+        <v>1.038363776616237</v>
       </c>
       <c r="E2">
-        <v>0.9986724263551806</v>
+        <v>1.033524582211499</v>
       </c>
       <c r="F2">
-        <v>1.012722559296463</v>
+        <v>1.044693412768122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042221209973291</v>
+        <v>1.057164429023977</v>
       </c>
       <c r="J2">
-        <v>1.013451301636954</v>
+        <v>1.041176463476297</v>
       </c>
       <c r="K2">
-        <v>1.022546501432227</v>
+        <v>1.049313314935302</v>
       </c>
       <c r="L2">
-        <v>1.010150287424217</v>
+        <v>1.044535817776128</v>
       </c>
       <c r="M2">
-        <v>1.024007449087234</v>
+        <v>1.055563326922633</v>
       </c>
       <c r="N2">
-        <v>1.014890518729758</v>
+        <v>1.017546734616847</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.027572557846925</v>
+        <v>1.05254693794818</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -480,43 +480,43 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9956030462204783</v>
+        <v>1.022896725595682</v>
       </c>
       <c r="D3">
-        <v>1.014665315028616</v>
+        <v>1.040729836616144</v>
       </c>
       <c r="E3">
-        <v>1.002343611323106</v>
+        <v>1.036083576252714</v>
       </c>
       <c r="F3">
-        <v>1.016127995169105</v>
+        <v>1.047168449425325</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043458919746702</v>
+        <v>1.058098923253964</v>
       </c>
       <c r="J3">
-        <v>1.016214298574038</v>
+        <v>1.042782084564859</v>
       </c>
       <c r="K3">
-        <v>1.025113927118539</v>
+        <v>1.050866802538834</v>
       </c>
       <c r="L3">
-        <v>1.012946592776013</v>
+        <v>1.046274674888213</v>
       </c>
       <c r="M3">
-        <v>1.026558591765687</v>
+        <v>1.057231380148697</v>
       </c>
       <c r="N3">
-        <v>1.017657439439422</v>
+        <v>1.018085274038615</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.029591650352877</v>
+        <v>1.053867067492624</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -527,43 +527,43 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9985143916704489</v>
+        <v>1.025017036395862</v>
       </c>
       <c r="D4">
-        <v>1.016828130291808</v>
+        <v>1.042238482024075</v>
       </c>
       <c r="E4">
-        <v>1.004670432189719</v>
+        <v>1.037717795090245</v>
       </c>
       <c r="F4">
-        <v>1.018291730414626</v>
+        <v>1.048749179832147</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044224484278792</v>
+        <v>1.058684761312362</v>
       </c>
       <c r="J4">
-        <v>1.017956175955381</v>
+        <v>1.043801752675303</v>
       </c>
       <c r="K4">
-        <v>1.026727610081347</v>
+        <v>1.051852512658848</v>
       </c>
       <c r="L4">
-        <v>1.014712814148093</v>
+        <v>1.047381352715187</v>
       </c>
       <c r="M4">
-        <v>1.028174291290137</v>
+        <v>1.058292801170245</v>
       </c>
       <c r="N4">
-        <v>1.019401790486443</v>
+        <v>1.018427228921907</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.030870386761702</v>
+        <v>1.054707095392226</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -574,43 +574,43 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9997225110841558</v>
+        <v>1.025900215219379</v>
       </c>
       <c r="D5">
-        <v>1.017725160085815</v>
+        <v>1.042867474758817</v>
       </c>
       <c r="E5">
-        <v>1.005637357279191</v>
+        <v>1.038399762519888</v>
       </c>
       <c r="F5">
-        <v>1.019192155650918</v>
+        <v>1.049408853207942</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044538040661007</v>
+        <v>1.058926594808097</v>
       </c>
       <c r="J5">
-        <v>1.018677782086316</v>
+        <v>1.044225894207655</v>
       </c>
       <c r="K5">
-        <v>1.027394905436164</v>
+        <v>1.052262318628374</v>
       </c>
       <c r="L5">
-        <v>1.015445311908626</v>
+        <v>1.047842263686971</v>
       </c>
       <c r="M5">
-        <v>1.028845402460412</v>
+        <v>1.058734814382691</v>
       </c>
       <c r="N5">
-        <v>1.020124421380853</v>
+        <v>1.018569455093195</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031401533276049</v>
+        <v>1.055056912412632</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -621,43 +621,43 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999244487196017</v>
+        <v>1.02604803004435</v>
       </c>
       <c r="D6">
-        <v>1.01787506917073</v>
+        <v>1.042972781146895</v>
       </c>
       <c r="E6">
-        <v>1.005799058152634</v>
+        <v>1.038513974599418</v>
       </c>
       <c r="F6">
-        <v>1.019342810044557</v>
+        <v>1.049519333076615</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044590206908035</v>
+        <v>1.058966940245875</v>
       </c>
       <c r="J6">
-        <v>1.018798325838376</v>
+        <v>1.044296846469474</v>
       </c>
       <c r="K6">
-        <v>1.027506304999441</v>
+        <v>1.052330860220333</v>
       </c>
       <c r="L6">
-        <v>1.015567722665036</v>
+        <v>1.047919400867865</v>
       </c>
       <c r="M6">
-        <v>1.02895761574705</v>
+        <v>1.058808785911359</v>
       </c>
       <c r="N6">
-        <v>1.020245136318868</v>
+        <v>1.018593246479842</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031490343702973</v>
+        <v>1.05511545476401</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -668,43 +668,43 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9985305960034078</v>
+        <v>1.0250288694164</v>
       </c>
       <c r="D7">
-        <v>1.016840163983547</v>
+        <v>1.042246907108795</v>
       </c>
       <c r="E7">
-        <v>1.004683396080462</v>
+        <v>1.03772692729303</v>
       </c>
       <c r="F7">
-        <v>1.018303797711168</v>
+        <v>1.048758013394807</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044228706380542</v>
+        <v>1.058688010123949</v>
       </c>
       <c r="J7">
-        <v>1.017965859634805</v>
+        <v>1.043807437748239</v>
       </c>
       <c r="K7">
-        <v>1.02673656972969</v>
+        <v>1.051858006421271</v>
       </c>
       <c r="L7">
-        <v>1.014722640792569</v>
+        <v>1.047387528354684</v>
       </c>
       <c r="M7">
-        <v>1.028183290310189</v>
+        <v>1.058298723800216</v>
       </c>
       <c r="N7">
-        <v>1.019411487917802</v>
+        <v>1.018429135336332</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.030877508979516</v>
+        <v>1.054711782666683</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -715,43 +715,43 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9925688048675938</v>
+        <v>1.020698785307843</v>
       </c>
       <c r="D8">
-        <v>1.012409763978453</v>
+        <v>1.039168093390571</v>
       </c>
       <c r="E8">
-        <v>0.999923437880612</v>
+        <v>1.034393955414156</v>
       </c>
       <c r="F8">
-        <v>1.013881883634255</v>
+        <v>1.045534233808585</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042646916496186</v>
+        <v>1.057484182802352</v>
       </c>
       <c r="J8">
-        <v>1.014394788530974</v>
+        <v>1.041723135769392</v>
       </c>
       <c r="K8">
-        <v>1.023424220533665</v>
+        <v>1.049842411222299</v>
       </c>
       <c r="L8">
-        <v>1.011104446348386</v>
+        <v>1.045127352562519</v>
       </c>
       <c r="M8">
-        <v>1.024877042734908</v>
+        <v>1.056130814343523</v>
       </c>
       <c r="N8">
-        <v>1.015835345483397</v>
+        <v>1.017730103128347</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.02826079521058</v>
+        <v>1.052996058714307</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -762,43 +762,43 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.981511544254732</v>
+        <v>1.012789522716919</v>
       </c>
       <c r="D9">
-        <v>1.004182764629183</v>
+        <v>1.033566516806173</v>
       </c>
       <c r="E9">
-        <v>0.9911446314086819</v>
+        <v>1.028349745568142</v>
       </c>
       <c r="F9">
-        <v>1.005769750777448</v>
+        <v>1.039689226024018</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039581054560942</v>
+        <v>1.055215854562518</v>
       </c>
       <c r="J9">
-        <v>1.007734506004464</v>
+        <v>1.037898595184615</v>
       </c>
       <c r="K9">
-        <v>1.017208341967553</v>
+        <v>1.046137502843677</v>
       </c>
       <c r="L9">
-        <v>1.004383033494254</v>
+        <v>1.04099902335688</v>
       </c>
       <c r="M9">
-        <v>1.018769906293759</v>
+        <v>1.052169596812358</v>
       </c>
       <c r="N9">
-        <v>1.009165604591754</v>
+        <v>1.016447089158546</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023427305196923</v>
+        <v>1.049861067226127</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -809,43 +809,43 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9738640873031101</v>
+        <v>1.007360334551046</v>
       </c>
       <c r="D10">
-        <v>0.9984975502238203</v>
+        <v>1.02975538096333</v>
       </c>
       <c r="E10">
-        <v>0.985123068166971</v>
+        <v>1.024252989676134</v>
       </c>
       <c r="F10">
-        <v>1.000469081329289</v>
+        <v>1.035759289862258</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037392356179586</v>
+        <v>1.05363309498445</v>
       </c>
       <c r="J10">
-        <v>1.003154456320055</v>
+        <v>1.035284940215133</v>
       </c>
       <c r="K10">
-        <v>1.012893984956474</v>
+        <v>1.043607401522469</v>
       </c>
       <c r="L10">
-        <v>0.9997662277643802</v>
+        <v>1.038197734006262</v>
       </c>
       <c r="M10">
-        <v>1.01482987152972</v>
+        <v>1.049511581434225</v>
       </c>
       <c r="N10">
-        <v>1.004579050711453</v>
+        <v>1.015574054659047</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020361543015993</v>
+        <v>1.047808312724256</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -856,43 +856,43 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9715308215080259</v>
+        <v>1.005325245380084</v>
       </c>
       <c r="D11">
-        <v>0.996815184620805</v>
+        <v>1.028466444149996</v>
       </c>
       <c r="E11">
-        <v>0.9834061278207041</v>
+        <v>1.022892747719128</v>
       </c>
       <c r="F11">
-        <v>1.00082180638649</v>
+        <v>1.034700726176672</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036828227487513</v>
+        <v>1.053180059532728</v>
       </c>
       <c r="J11">
-        <v>1.002137858010853</v>
+        <v>1.034478153785232</v>
       </c>
       <c r="K11">
-        <v>1.011797412862024</v>
+        <v>1.04287077672385</v>
       </c>
       <c r="L11">
-        <v>0.9986479150734335</v>
+        <v>1.037395479153714</v>
       </c>
       <c r="M11">
-        <v>1.015728241266153</v>
+        <v>1.048996622308277</v>
       </c>
       <c r="N11">
-        <v>1.003561008716047</v>
+        <v>1.015338056203529</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021517436337503</v>
+        <v>1.047832334509328</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -903,43 +903,43 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710212485713807</v>
+        <v>1.004698695008348</v>
       </c>
       <c r="D12">
-        <v>0.9964731341931952</v>
+        <v>1.028128669544503</v>
       </c>
       <c r="E12">
-        <v>0.9830907060226194</v>
+        <v>1.022547652185405</v>
       </c>
       <c r="F12">
-        <v>1.001854692395718</v>
+        <v>1.034551554798382</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036759888970979</v>
+        <v>1.053103484526812</v>
       </c>
       <c r="J12">
-        <v>1.002104772316414</v>
+        <v>1.034305520312712</v>
       </c>
       <c r="K12">
-        <v>1.011668216756283</v>
+        <v>1.042736106847457</v>
       </c>
       <c r="L12">
-        <v>0.9985491933774595</v>
+        <v>1.037255259093569</v>
       </c>
       <c r="M12">
-        <v>1.016946445480828</v>
+        <v>1.049045445587898</v>
       </c>
       <c r="N12">
-        <v>1.003527876036127</v>
+        <v>1.015307640235313</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022812910306122</v>
+        <v>1.04819418539537</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -950,43 +950,43 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9718796906432234</v>
+        <v>1.005116708645108</v>
       </c>
       <c r="D13">
-        <v>0.9971389676977989</v>
+        <v>1.028503383308191</v>
       </c>
       <c r="E13">
-        <v>0.9838285751288439</v>
+        <v>1.022963479534471</v>
       </c>
       <c r="F13">
-        <v>1.003499350189471</v>
+        <v>1.035102024140517</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037073882515177</v>
+        <v>1.053318217628108</v>
       </c>
       <c r="J13">
-        <v>1.002826571483334</v>
+        <v>1.034614252616196</v>
       </c>
       <c r="K13">
-        <v>1.012276967687533</v>
+        <v>1.043061873913844</v>
       </c>
       <c r="L13">
-        <v>0.9992271931487817</v>
+        <v>1.037620970926552</v>
       </c>
       <c r="M13">
-        <v>1.01851600414359</v>
+        <v>1.0495443846546</v>
       </c>
       <c r="N13">
-        <v>1.004250700240656</v>
+        <v>1.015435029304933</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024334462862364</v>
+        <v>1.0488629867657</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -997,43 +997,43 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.973083180586115</v>
+        <v>1.005882079575426</v>
       </c>
       <c r="D14">
-        <v>0.9980483164584081</v>
+        <v>1.029087770776436</v>
       </c>
       <c r="E14">
-        <v>0.9848073703998854</v>
+        <v>1.023598453855033</v>
       </c>
       <c r="F14">
-        <v>1.004896565650728</v>
+        <v>1.035803728788418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037459869801481</v>
+        <v>1.053599713091157</v>
       </c>
       <c r="J14">
-        <v>1.003657568936773</v>
+        <v>1.035047495579844</v>
       </c>
       <c r="K14">
-        <v>1.013024150084809</v>
+        <v>1.043497497926172</v>
       </c>
       <c r="L14">
-        <v>1.000038953189907</v>
+        <v>1.0381050538254</v>
       </c>
       <c r="M14">
-        <v>1.019743575439161</v>
+        <v>1.050096741930327</v>
       </c>
       <c r="N14">
-        <v>1.005082877805796</v>
+        <v>1.015595269328655</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025480130987332</v>
+        <v>1.049471641031184</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1044,43 +1044,43 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9736869181611855</v>
+        <v>1.006298192807984</v>
       </c>
       <c r="D15">
-        <v>0.9984997853064365</v>
+        <v>1.029389348252489</v>
       </c>
       <c r="E15">
-        <v>0.9852871264608293</v>
+        <v>1.023923667862669</v>
       </c>
       <c r="F15">
-        <v>1.005420129712451</v>
+        <v>1.036136262090985</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037642535461712</v>
+        <v>1.053734696050067</v>
       </c>
       <c r="J15">
-        <v>1.004038857798816</v>
+        <v>1.035261768363392</v>
       </c>
       <c r="K15">
-        <v>1.013377963751625</v>
+        <v>1.043708549033858</v>
       </c>
       <c r="L15">
-        <v>1.000418439696476</v>
+        <v>1.038338591481449</v>
       </c>
       <c r="M15">
-        <v>1.020169185523303</v>
+        <v>1.05033910069037</v>
       </c>
       <c r="N15">
-        <v>1.005464708141757</v>
+        <v>1.015670130638151</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.025854443512604</v>
+        <v>1.049700482234765</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1091,43 +1091,43 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9767438862083125</v>
+        <v>1.008514784710888</v>
       </c>
       <c r="D16">
-        <v>1.000767705911611</v>
+        <v>1.030933610932251</v>
       </c>
       <c r="E16">
-        <v>0.9876731830216654</v>
+        <v>1.02557954062935</v>
       </c>
       <c r="F16">
-        <v>1.007382655818988</v>
+        <v>1.037715299437203</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038520859274514</v>
+        <v>1.054380416918646</v>
       </c>
       <c r="J16">
-        <v>1.005831732993859</v>
+        <v>1.036318882205362</v>
       </c>
       <c r="K16">
-        <v>1.015086475979897</v>
+        <v>1.044730836263059</v>
       </c>
       <c r="L16">
-        <v>1.002231282692521</v>
+        <v>1.039466444788079</v>
       </c>
       <c r="M16">
-        <v>1.021583591411853</v>
+        <v>1.05140064150175</v>
       </c>
       <c r="N16">
-        <v>1.007260129425222</v>
+        <v>1.016018726031589</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.026933266466668</v>
+        <v>1.050501081512441</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1138,43 +1138,43 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784674606758209</v>
+        <v>1.009815154429401</v>
       </c>
       <c r="D17">
-        <v>1.002038033078355</v>
+        <v>1.03181224191488</v>
       </c>
       <c r="E17">
-        <v>0.9890004718795932</v>
+        <v>1.026517716253557</v>
       </c>
       <c r="F17">
-        <v>1.008162941376196</v>
+        <v>1.038555540093979</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038992064095986</v>
+        <v>1.054725051489917</v>
       </c>
       <c r="J17">
-        <v>1.006779012554859</v>
+        <v>1.036901306737848</v>
       </c>
       <c r="K17">
-        <v>1.016010422307159</v>
+        <v>1.045284567708416</v>
       </c>
       <c r="L17">
-        <v>1.003204151115271</v>
+        <v>1.040076238072992</v>
       </c>
       <c r="M17">
-        <v>1.022029342623713</v>
+        <v>1.051919714049679</v>
       </c>
       <c r="N17">
-        <v>1.008208754231855</v>
+        <v>1.016201516600763</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.027155174535362</v>
+        <v>1.050783303420993</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1185,43 +1185,43 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9791627390806479</v>
+        <v>1.010443655950918</v>
       </c>
       <c r="D18">
-        <v>1.002533539319127</v>
+        <v>1.032187373117821</v>
       </c>
       <c r="E18">
-        <v>0.9894982161808025</v>
+        <v>1.026910044966932</v>
       </c>
       <c r="F18">
-        <v>1.007825903995125</v>
+        <v>1.038808747914144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039141715441463</v>
+        <v>1.054835336148584</v>
       </c>
       <c r="J18">
-        <v>1.007036742311722</v>
+        <v>1.037117838813717</v>
       </c>
       <c r="K18">
-        <v>1.016308683409438</v>
+        <v>1.045472714563206</v>
       </c>
       <c r="L18">
-        <v>1.003500720239441</v>
+        <v>1.040279898450404</v>
       </c>
       <c r="M18">
-        <v>1.021510905745637</v>
+        <v>1.051989606959945</v>
       </c>
       <c r="N18">
-        <v>1.008466849994534</v>
+        <v>1.016253877182686</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.026504659143696</v>
+        <v>1.050602895944536</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1232,43 +1232,43 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9788769273780435</v>
+        <v>1.010458026810492</v>
       </c>
       <c r="D19">
-        <v>1.002287839981356</v>
+        <v>1.032100665927959</v>
       </c>
       <c r="E19">
-        <v>0.9892006556488629</v>
+        <v>1.026801062092414</v>
       </c>
       <c r="F19">
-        <v>1.00635858511301</v>
+        <v>1.038523133050173</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03898275683433</v>
+        <v>1.054731845924858</v>
       </c>
       <c r="J19">
-        <v>1.006622943510047</v>
+        <v>1.036999328885858</v>
       </c>
       <c r="K19">
-        <v>1.016002866755597</v>
+        <v>1.045325686945031</v>
       </c>
       <c r="L19">
-        <v>1.003142880316219</v>
+        <v>1.040110520652143</v>
       </c>
       <c r="M19">
-        <v>1.020004496927799</v>
+        <v>1.051647302646224</v>
       </c>
       <c r="N19">
-        <v>1.008052463551096</v>
+        <v>1.016188288908987</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.024983045689744</v>
+        <v>1.050009907029222</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1279,43 +1279,43 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9758570794061471</v>
+        <v>1.008766454141842</v>
       </c>
       <c r="D20">
-        <v>0.9999793278319545</v>
+        <v>1.030741901463562</v>
       </c>
       <c r="E20">
-        <v>0.986690030064909</v>
+        <v>1.025312655087034</v>
       </c>
       <c r="F20">
-        <v>1.001856965022251</v>
+        <v>1.036777320467577</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037969315619474</v>
+        <v>1.054047095253236</v>
       </c>
       <c r="J20">
-        <v>1.004351475083991</v>
+        <v>1.03596357670766</v>
       </c>
       <c r="K20">
-        <v>1.014022540744672</v>
+        <v>1.044264904413153</v>
       </c>
       <c r="L20">
-        <v>1.00097102766779</v>
+        <v>1.038924550568004</v>
       </c>
       <c r="M20">
-        <v>1.015867240340791</v>
+        <v>1.050202907409379</v>
       </c>
       <c r="N20">
-        <v>1.005777769379335</v>
+        <v>1.015800912139054</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021171745566755</v>
+        <v>1.048344986493345</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9698710720532744</v>
+        <v>1.004629974151098</v>
       </c>
       <c r="D21">
-        <v>0.9955200817766033</v>
+        <v>1.027818593418232</v>
       </c>
       <c r="E21">
-        <v>0.9819692661000606</v>
+        <v>1.022170261268478</v>
       </c>
       <c r="F21">
-        <v>0.9973450641055771</v>
+        <v>1.033715338991131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036204368376668</v>
+        <v>1.052797259221775</v>
       </c>
       <c r="J21">
-        <v>1.000684807040005</v>
+        <v>1.033935385434767</v>
       </c>
       <c r="K21">
-        <v>1.010586827557192</v>
+        <v>1.042291428549275</v>
       </c>
       <c r="L21">
-        <v>0.9973004818801683</v>
+        <v>1.036743442133523</v>
       </c>
       <c r="M21">
-        <v>1.012376910238469</v>
+        <v>1.048084929649291</v>
       </c>
       <c r="N21">
-        <v>1.002105894246154</v>
+        <v>1.015117319598832</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.018367534748857</v>
+        <v>1.04662836127885</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1373,43 +1373,43 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9660743410678448</v>
+        <v>1.002005280048946</v>
       </c>
       <c r="D22">
-        <v>0.9926963199798842</v>
+        <v>1.025976510704334</v>
       </c>
       <c r="E22">
-        <v>0.9789909193549132</v>
+        <v>1.020194086123604</v>
       </c>
       <c r="F22">
-        <v>0.9946213120100384</v>
+        <v>1.031805390618237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035075954344313</v>
+        <v>1.052004893242952</v>
       </c>
       <c r="J22">
-        <v>0.9983793145706967</v>
+        <v>1.032657710833417</v>
       </c>
       <c r="K22">
-        <v>1.008413866108898</v>
+        <v>1.041050353959969</v>
       </c>
       <c r="L22">
-        <v>0.9949903839164604</v>
+        <v>1.035375835536661</v>
       </c>
       <c r="M22">
-        <v>1.0103000801389</v>
+        <v>1.046772054131277</v>
       </c>
       <c r="N22">
-        <v>0.999797127713095</v>
+        <v>1.014688609085571</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.016723808352663</v>
+        <v>1.045589316335221</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1420,43 +1420,43 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9680968490412907</v>
+        <v>1.003401203619572</v>
       </c>
       <c r="D23">
-        <v>0.99420036737378</v>
+        <v>1.026955786901454</v>
       </c>
       <c r="E23">
-        <v>0.9805766063366746</v>
+        <v>1.021244410021586</v>
       </c>
       <c r="F23">
-        <v>0.9960708078595736</v>
+        <v>1.032820484763995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035678553334999</v>
+        <v>1.052427109293688</v>
       </c>
       <c r="J23">
-        <v>0.9996077554237087</v>
+        <v>1.033337376838747</v>
       </c>
       <c r="K23">
-        <v>1.009572100160469</v>
+        <v>1.041710612459066</v>
       </c>
       <c r="L23">
-        <v>0.9962209270958916</v>
+        <v>1.036103092959954</v>
       </c>
       <c r="M23">
-        <v>1.011405880057014</v>
+        <v>1.04747021622374</v>
       </c>
       <c r="N23">
-        <v>1.001027313093023</v>
+        <v>1.01491666389711</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.017599004436076</v>
+        <v>1.046141860747784</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1467,43 +1467,43 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9758479891863174</v>
+        <v>1.00879836394863</v>
       </c>
       <c r="D24">
-        <v>0.9999674435947752</v>
+        <v>1.030750987464934</v>
       </c>
       <c r="E24">
-        <v>0.9866720961417279</v>
+        <v>1.02532021053814</v>
       </c>
       <c r="F24">
-        <v>1.001656619302439</v>
+        <v>1.036760216990305</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037954938102537</v>
+        <v>1.054041772517104</v>
       </c>
       <c r="J24">
-        <v>1.004308530291503</v>
+        <v>1.035961884626094</v>
       </c>
       <c r="K24">
-        <v>1.013995130984192</v>
+        <v>1.044258776426552</v>
       </c>
       <c r="L24">
-        <v>1.00093737837488</v>
+        <v>1.038916801522165</v>
       </c>
       <c r="M24">
-        <v>1.015654705172973</v>
+        <v>1.050171135555367</v>
       </c>
       <c r="N24">
-        <v>1.005734763600316</v>
+        <v>1.015797283185104</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020961767607891</v>
+        <v>1.048279437649208</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1514,43 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9844395816449805</v>
+        <v>1.014868784302107</v>
       </c>
       <c r="D25">
-        <v>1.006362003538392</v>
+        <v>1.035036297538419</v>
       </c>
       <c r="E25">
-        <v>0.9934632182581075</v>
+        <v>1.029933393424</v>
       </c>
       <c r="F25">
-        <v>1.007907118162921</v>
+        <v>1.041220515670911</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040407856751879</v>
+        <v>1.055820093851709</v>
       </c>
       <c r="J25">
-        <v>1.009502208229459</v>
+        <v>1.038905910601357</v>
       </c>
       <c r="K25">
-        <v>1.018862353910617</v>
+        <v>1.047114020232099</v>
       </c>
       <c r="L25">
-        <v>1.006163864041717</v>
+        <v>1.042084146571857</v>
       </c>
       <c r="M25">
-        <v>1.020383913971323</v>
+        <v>1.053210944328785</v>
       </c>
       <c r="N25">
-        <v>1.010935817156667</v>
+        <v>1.01678504338056</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024704714078351</v>
+        <v>1.050685212986644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019565613109248</v>
+        <v>1.018319775590006</v>
       </c>
       <c r="D2">
-        <v>1.038363776616237</v>
+        <v>1.036321608612677</v>
       </c>
       <c r="E2">
-        <v>1.033524582211499</v>
+        <v>1.032377737336736</v>
       </c>
       <c r="F2">
-        <v>1.044693412768122</v>
+        <v>1.043367149165148</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057164429023977</v>
+        <v>1.056068557459865</v>
       </c>
       <c r="J2">
-        <v>1.041176463476297</v>
+        <v>1.039966019056732</v>
       </c>
       <c r="K2">
-        <v>1.049313314935302</v>
+        <v>1.047297095746572</v>
       </c>
       <c r="L2">
-        <v>1.044535817776128</v>
+        <v>1.04340370059268</v>
       </c>
       <c r="M2">
-        <v>1.055563326922633</v>
+        <v>1.054253647409844</v>
       </c>
       <c r="N2">
-        <v>1.017546734616847</v>
+        <v>1.017743974872163</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05254693794818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.051510430661441</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024580797556426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022896725595682</v>
+        <v>1.021526034698474</v>
       </c>
       <c r="D3">
-        <v>1.040729836616144</v>
+        <v>1.038513190091877</v>
       </c>
       <c r="E3">
-        <v>1.036083576252714</v>
+        <v>1.034823021362291</v>
       </c>
       <c r="F3">
-        <v>1.047168449425325</v>
+        <v>1.045722185828792</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058098923253964</v>
+        <v>1.056903021488917</v>
       </c>
       <c r="J3">
-        <v>1.042782084564859</v>
+        <v>1.041446596915781</v>
       </c>
       <c r="K3">
-        <v>1.050866802538834</v>
+        <v>1.04867590703859</v>
       </c>
       <c r="L3">
-        <v>1.046274674888213</v>
+        <v>1.045028910240735</v>
       </c>
       <c r="M3">
-        <v>1.057231380148697</v>
+        <v>1.055801648607649</v>
       </c>
       <c r="N3">
-        <v>1.018085274038615</v>
+        <v>1.018138231899095</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053867067492624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.05273555047477</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024849861154792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025017036395862</v>
+        <v>1.023567506713612</v>
       </c>
       <c r="D4">
-        <v>1.042238482024075</v>
+        <v>1.039911191190575</v>
       </c>
       <c r="E4">
-        <v>1.037717795090245</v>
+        <v>1.036385336124726</v>
       </c>
       <c r="F4">
-        <v>1.048749179832147</v>
+        <v>1.047226941245834</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058684761312362</v>
+        <v>1.057425334235174</v>
       </c>
       <c r="J4">
-        <v>1.043801752675303</v>
+        <v>1.042386979737959</v>
       </c>
       <c r="K4">
-        <v>1.051852512658848</v>
+        <v>1.049550652726441</v>
       </c>
       <c r="L4">
-        <v>1.047381352715187</v>
+        <v>1.046063593014595</v>
       </c>
       <c r="M4">
-        <v>1.058292801170245</v>
+        <v>1.056786928558531</v>
       </c>
       <c r="N4">
-        <v>1.018427228921907</v>
+        <v>1.018388635607305</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054707095392226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.0535153201444</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025018141261105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025900215219379</v>
+        <v>1.024417988537506</v>
       </c>
       <c r="D5">
-        <v>1.042867474758817</v>
+        <v>1.040494190665186</v>
       </c>
       <c r="E5">
-        <v>1.038399762519888</v>
+        <v>1.037037461212745</v>
       </c>
       <c r="F5">
-        <v>1.049408853207942</v>
+        <v>1.047855060575441</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058926594808097</v>
+        <v>1.057640739440599</v>
       </c>
       <c r="J5">
-        <v>1.044225894207655</v>
+        <v>1.042778166273703</v>
       </c>
       <c r="K5">
-        <v>1.052262318628374</v>
+        <v>1.049914288071091</v>
       </c>
       <c r="L5">
-        <v>1.047842263686971</v>
+        <v>1.046494594224207</v>
       </c>
       <c r="M5">
-        <v>1.058734814382691</v>
+        <v>1.057197288473324</v>
       </c>
       <c r="N5">
-        <v>1.018569455093195</v>
+        <v>1.018492797749127</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055056912412632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053840086705292</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025087509218498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02604803004435</v>
+        <v>1.024560339032071</v>
       </c>
       <c r="D6">
-        <v>1.042972781146895</v>
+        <v>1.040591804652871</v>
       </c>
       <c r="E6">
-        <v>1.038513974599418</v>
+        <v>1.037146684861331</v>
       </c>
       <c r="F6">
-        <v>1.049519333076615</v>
+        <v>1.047960264590715</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058966940245875</v>
+        <v>1.05767666346324</v>
       </c>
       <c r="J6">
-        <v>1.044296846469474</v>
+        <v>1.042843606966292</v>
       </c>
       <c r="K6">
-        <v>1.052330860220333</v>
+        <v>1.049975105064484</v>
       </c>
       <c r="L6">
-        <v>1.047919400867865</v>
+        <v>1.046566730008083</v>
       </c>
       <c r="M6">
-        <v>1.058808785911359</v>
+        <v>1.057265965822136</v>
       </c>
       <c r="N6">
-        <v>1.018593246479842</v>
+        <v>1.018510222629955</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05511545476401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053894439238251</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025099076133053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0250288694164</v>
+        <v>1.023585545149022</v>
       </c>
       <c r="D7">
-        <v>1.042246907108795</v>
+        <v>1.039924102561463</v>
       </c>
       <c r="E7">
-        <v>1.03772692729303</v>
+        <v>1.036399664559589</v>
       </c>
       <c r="F7">
-        <v>1.048758013394807</v>
+        <v>1.047240018134542</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058688010123949</v>
+        <v>1.057431876778176</v>
       </c>
       <c r="J7">
-        <v>1.043807437748239</v>
+        <v>1.042398707496099</v>
       </c>
       <c r="K7">
-        <v>1.051858006421271</v>
+        <v>1.049560574675328</v>
       </c>
       <c r="L7">
-        <v>1.047387528354684</v>
+        <v>1.046074902283025</v>
       </c>
       <c r="M7">
-        <v>1.058298723800216</v>
+        <v>1.056797043059439</v>
       </c>
       <c r="N7">
-        <v>1.018429135336332</v>
+        <v>1.018417496734337</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054711782666683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.053523324952484</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025020623640177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020698785307843</v>
+        <v>1.019430710420246</v>
       </c>
       <c r="D8">
-        <v>1.039168093390571</v>
+        <v>1.037082132501778</v>
       </c>
       <c r="E8">
-        <v>1.034393955414156</v>
+        <v>1.033225503208443</v>
       </c>
       <c r="F8">
-        <v>1.045534233808585</v>
+        <v>1.044181376168859</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057484182802352</v>
+        <v>1.056365413018042</v>
       </c>
       <c r="J8">
-        <v>1.041723135769392</v>
+        <v>1.04048990058674</v>
       </c>
       <c r="K8">
-        <v>1.049842411222299</v>
+        <v>1.047782180521258</v>
       </c>
       <c r="L8">
-        <v>1.045127352562519</v>
+        <v>1.043973463428027</v>
       </c>
       <c r="M8">
-        <v>1.056130814343523</v>
+        <v>1.054794377969291</v>
       </c>
       <c r="N8">
-        <v>1.017730103128347</v>
+        <v>1.017961701738138</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052996058714307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051938376114134</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024677723265475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012789522716919</v>
+        <v>1.011824811333332</v>
       </c>
       <c r="D9">
-        <v>1.033566516806173</v>
+        <v>1.031899643625073</v>
       </c>
       <c r="E9">
-        <v>1.028349745568142</v>
+        <v>1.02745667499862</v>
       </c>
       <c r="F9">
-        <v>1.039689226024018</v>
+        <v>1.038625882323251</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055215854562518</v>
+        <v>1.054337067988534</v>
       </c>
       <c r="J9">
-        <v>1.037898595184615</v>
+        <v>1.03696680562975</v>
       </c>
       <c r="K9">
-        <v>1.046137502843677</v>
+        <v>1.044495536095607</v>
       </c>
       <c r="L9">
-        <v>1.04099902335688</v>
+        <v>1.040119457262019</v>
       </c>
       <c r="M9">
-        <v>1.052169596812358</v>
+        <v>1.051121893089989</v>
       </c>
       <c r="N9">
-        <v>1.016447089158546</v>
+        <v>1.017032972586583</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049861067226127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.049031890102551</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024023133851501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007360334551046</v>
+        <v>1.006634511424769</v>
       </c>
       <c r="D10">
-        <v>1.02975538096333</v>
+        <v>1.028398113162608</v>
       </c>
       <c r="E10">
-        <v>1.024252989676134</v>
+        <v>1.023573941086012</v>
       </c>
       <c r="F10">
-        <v>1.035759289862258</v>
+        <v>1.034915482499918</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05363309498445</v>
+        <v>1.052934026697697</v>
       </c>
       <c r="J10">
-        <v>1.035284940215133</v>
+        <v>1.034587351996815</v>
       </c>
       <c r="K10">
-        <v>1.043607401522469</v>
+        <v>1.042272886915012</v>
       </c>
       <c r="L10">
-        <v>1.038197734006262</v>
+        <v>1.037530217651419</v>
       </c>
       <c r="M10">
-        <v>1.049511581434225</v>
+        <v>1.048681700347556</v>
       </c>
       <c r="N10">
-        <v>1.015574054659047</v>
+        <v>1.016518534830929</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047808312724256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.047151563830545</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023575113710605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005325245380084</v>
+        <v>1.004712833457322</v>
       </c>
       <c r="D11">
-        <v>1.028466444149996</v>
+        <v>1.027235158718119</v>
       </c>
       <c r="E11">
-        <v>1.022892747719128</v>
+        <v>1.022311164204571</v>
       </c>
       <c r="F11">
-        <v>1.034700726176672</v>
+        <v>1.033952533955969</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053180059532728</v>
+        <v>1.052558043691651</v>
       </c>
       <c r="J11">
-        <v>1.034478153785232</v>
+        <v>1.03389085888168</v>
       </c>
       <c r="K11">
-        <v>1.04287077672385</v>
+        <v>1.041661109484875</v>
       </c>
       <c r="L11">
-        <v>1.037395479153714</v>
+        <v>1.036824243241617</v>
       </c>
       <c r="M11">
-        <v>1.048996622308277</v>
+        <v>1.048261354498058</v>
       </c>
       <c r="N11">
-        <v>1.015338056203529</v>
+        <v>1.016584210614982</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047832334509328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.047250746885647</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023488244849714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004698695008348</v>
+        <v>1.004117544092884</v>
       </c>
       <c r="D12">
-        <v>1.028128669544503</v>
+        <v>1.026929691410369</v>
       </c>
       <c r="E12">
-        <v>1.022547652185405</v>
+        <v>1.021991478075323</v>
       </c>
       <c r="F12">
-        <v>1.034551554798382</v>
+        <v>1.033828662973193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053103484526812</v>
+        <v>1.052501869649833</v>
       </c>
       <c r="J12">
-        <v>1.034305520312712</v>
+        <v>1.033748658598955</v>
       </c>
       <c r="K12">
-        <v>1.042736106847457</v>
+        <v>1.041558529051399</v>
       </c>
       <c r="L12">
-        <v>1.037255259093569</v>
+        <v>1.036709145302978</v>
       </c>
       <c r="M12">
-        <v>1.049045445587898</v>
+        <v>1.048335242037289</v>
       </c>
       <c r="N12">
-        <v>1.015307640235313</v>
+        <v>1.016666144310334</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04819418539537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.047632609848917</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023494269828294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005116708645108</v>
+        <v>1.004496719235494</v>
       </c>
       <c r="D13">
-        <v>1.028503383308191</v>
+        <v>1.027259841571412</v>
       </c>
       <c r="E13">
-        <v>1.022963479534471</v>
+        <v>1.022371748772804</v>
       </c>
       <c r="F13">
-        <v>1.035102024140517</v>
+        <v>1.034345877234063</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053318217628108</v>
+        <v>1.052689975590076</v>
       </c>
       <c r="J13">
-        <v>1.034614252616196</v>
+        <v>1.034020051861023</v>
       </c>
       <c r="K13">
-        <v>1.043061873913844</v>
+        <v>1.041840434238427</v>
       </c>
       <c r="L13">
-        <v>1.037620970926552</v>
+        <v>1.037039897117203</v>
       </c>
       <c r="M13">
-        <v>1.0495443846546</v>
+        <v>1.048801447882265</v>
       </c>
       <c r="N13">
-        <v>1.015435029304933</v>
+        <v>1.016731923145751</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0488629867657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.048275673543779</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023572990118026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005882079575426</v>
+        <v>1.005203896059216</v>
       </c>
       <c r="D14">
-        <v>1.029087770776436</v>
+        <v>1.027778868960081</v>
       </c>
       <c r="E14">
-        <v>1.023598453855033</v>
+        <v>1.022955017315696</v>
       </c>
       <c r="F14">
-        <v>1.035803728788418</v>
+        <v>1.034998407306972</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053599713091157</v>
+        <v>1.052931947096264</v>
       </c>
       <c r="J14">
-        <v>1.035047495579844</v>
+        <v>1.034397125077119</v>
       </c>
       <c r="K14">
-        <v>1.043497497926172</v>
+        <v>1.042211573203042</v>
       </c>
       <c r="L14">
-        <v>1.0381050538254</v>
+        <v>1.037473060702011</v>
       </c>
       <c r="M14">
-        <v>1.050096741930327</v>
+        <v>1.049305312438402</v>
       </c>
       <c r="N14">
-        <v>1.015595269328655</v>
+        <v>1.016771649882015</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049471641031184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.048846076351026</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023660959158699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006298192807984</v>
+        <v>1.005590988181265</v>
       </c>
       <c r="D15">
-        <v>1.029389348252489</v>
+        <v>1.028047931571189</v>
       </c>
       <c r="E15">
-        <v>1.023923667862669</v>
+        <v>1.023254748353128</v>
       </c>
       <c r="F15">
-        <v>1.036136262090985</v>
+        <v>1.035306460322831</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053734696050067</v>
+        <v>1.053047203721884</v>
       </c>
       <c r="J15">
-        <v>1.035261768363392</v>
+        <v>1.034583317950975</v>
       </c>
       <c r="K15">
-        <v>1.043708549033858</v>
+        <v>1.042390503114655</v>
       </c>
       <c r="L15">
-        <v>1.038338591481449</v>
+        <v>1.037681478130544</v>
       </c>
       <c r="M15">
-        <v>1.05033910069037</v>
+        <v>1.04952350458288</v>
       </c>
       <c r="N15">
-        <v>1.015670130638151</v>
+        <v>1.016781806210577</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049700482234765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.049055832508194</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023699781411618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008514784710888</v>
+        <v>1.007670616403193</v>
       </c>
       <c r="D16">
-        <v>1.030933610932251</v>
+        <v>1.029436355227907</v>
       </c>
       <c r="E16">
-        <v>1.02557954062935</v>
+        <v>1.024791177137262</v>
       </c>
       <c r="F16">
-        <v>1.037715299437203</v>
+        <v>1.036768925780575</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054380416918646</v>
+        <v>1.053598601278243</v>
       </c>
       <c r="J16">
-        <v>1.036318882205362</v>
+        <v>1.035507347185252</v>
       </c>
       <c r="K16">
-        <v>1.044730836263059</v>
+        <v>1.04325853801159</v>
       </c>
       <c r="L16">
-        <v>1.039466444788079</v>
+        <v>1.038691388227352</v>
       </c>
       <c r="M16">
-        <v>1.05140064150175</v>
+        <v>1.050469767982747</v>
       </c>
       <c r="N16">
-        <v>1.016018726031589</v>
+        <v>1.016818449078697</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050501081512441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.049765295438977</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023871608703432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009815154429401</v>
+        <v>1.008903551347351</v>
       </c>
       <c r="D17">
-        <v>1.03181224191488</v>
+        <v>1.030235089860203</v>
       </c>
       <c r="E17">
-        <v>1.026517716253557</v>
+        <v>1.025670548914311</v>
       </c>
       <c r="F17">
-        <v>1.038555540093979</v>
+        <v>1.037550368100999</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054725051489917</v>
+        <v>1.053895379567212</v>
       </c>
       <c r="J17">
-        <v>1.036901306737848</v>
+        <v>1.036023827174635</v>
       </c>
       <c r="K17">
-        <v>1.045284567708416</v>
+        <v>1.04373297304137</v>
       </c>
       <c r="L17">
-        <v>1.040076238072992</v>
+        <v>1.039242969006123</v>
       </c>
       <c r="M17">
-        <v>1.051919714049679</v>
+        <v>1.050930549154221</v>
       </c>
       <c r="N17">
-        <v>1.016201516600763</v>
+        <v>1.016853742402011</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050783303420993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.050001365437783</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023957421381163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010443655950918</v>
+        <v>1.009510079675302</v>
       </c>
       <c r="D18">
-        <v>1.032187373117821</v>
+        <v>1.030582741769441</v>
       </c>
       <c r="E18">
-        <v>1.026910044966932</v>
+        <v>1.026044201049426</v>
       </c>
       <c r="F18">
-        <v>1.038808747914144</v>
+        <v>1.037783659429261</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054835336148584</v>
+        <v>1.053989329095685</v>
       </c>
       <c r="J18">
-        <v>1.037117838813717</v>
+        <v>1.036218560245771</v>
       </c>
       <c r="K18">
-        <v>1.045472714563206</v>
+        <v>1.043893662663776</v>
       </c>
       <c r="L18">
-        <v>1.040279898450404</v>
+        <v>1.039428026862277</v>
       </c>
       <c r="M18">
-        <v>1.051989606959945</v>
+        <v>1.050980582333565</v>
       </c>
       <c r="N18">
-        <v>1.016253877182686</v>
+        <v>1.01685076070696</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050602895944536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.049805095068578</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02397154646283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010458026810492</v>
+        <v>1.009538972521245</v>
       </c>
       <c r="D19">
-        <v>1.032100665927959</v>
+        <v>1.030512697468641</v>
       </c>
       <c r="E19">
-        <v>1.026801062092414</v>
+        <v>1.02594907985579</v>
       </c>
       <c r="F19">
-        <v>1.038523133050173</v>
+        <v>1.037510238838171</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054731845924858</v>
+        <v>1.053895668224969</v>
       </c>
       <c r="J19">
-        <v>1.036999328885858</v>
+        <v>1.03611383986544</v>
       </c>
       <c r="K19">
-        <v>1.045325686945031</v>
+        <v>1.043762902526465</v>
       </c>
       <c r="L19">
-        <v>1.040110520652143</v>
+        <v>1.039272217289333</v>
       </c>
       <c r="M19">
-        <v>1.051647302646224</v>
+        <v>1.050650207783603</v>
       </c>
       <c r="N19">
-        <v>1.016188288908987</v>
+        <v>1.016793375492466</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050009907029222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.049221285736322</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023919315635193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008766454141842</v>
+        <v>1.007960159484126</v>
       </c>
       <c r="D20">
-        <v>1.030741901463562</v>
+        <v>1.029290163720638</v>
       </c>
       <c r="E20">
-        <v>1.025312655087034</v>
+        <v>1.024562513634897</v>
       </c>
       <c r="F20">
-        <v>1.036777320467577</v>
+        <v>1.035863594101286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054047095253236</v>
+        <v>1.053291452788561</v>
       </c>
       <c r="J20">
-        <v>1.03596357670766</v>
+        <v>1.035187641770962</v>
       </c>
       <c r="K20">
-        <v>1.044264904413153</v>
+        <v>1.042836817795094</v>
       </c>
       <c r="L20">
-        <v>1.038924550568004</v>
+        <v>1.038186786431346</v>
       </c>
       <c r="M20">
-        <v>1.050202907409379</v>
+        <v>1.049303835709679</v>
       </c>
       <c r="N20">
-        <v>1.015800912139054</v>
+        <v>1.016579962897463</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048344986493345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.047633473309655</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023688334610168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004629974151098</v>
+        <v>1.004099914909032</v>
       </c>
       <c r="D21">
-        <v>1.027818593418232</v>
+        <v>1.026676488650181</v>
       </c>
       <c r="E21">
-        <v>1.022170261268478</v>
+        <v>1.021663115421493</v>
       </c>
       <c r="F21">
-        <v>1.033715338991131</v>
+        <v>1.033035652663198</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052797259221775</v>
+        <v>1.052229771241805</v>
       </c>
       <c r="J21">
-        <v>1.033935385434767</v>
+        <v>1.033427214891102</v>
       </c>
       <c r="K21">
-        <v>1.042291428549275</v>
+        <v>1.041169498393413</v>
       </c>
       <c r="L21">
-        <v>1.036743442133523</v>
+        <v>1.036245376521785</v>
       </c>
       <c r="M21">
-        <v>1.048084929649291</v>
+        <v>1.047417065951154</v>
       </c>
       <c r="N21">
-        <v>1.015117319598832</v>
+        <v>1.016524392234721</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04662836127885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.046099796195348</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023349047998381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002005280048946</v>
+        <v>1.001648435107516</v>
       </c>
       <c r="D22">
-        <v>1.025976510704334</v>
+        <v>1.025028670717225</v>
       </c>
       <c r="E22">
-        <v>1.020194086123604</v>
+        <v>1.019839260764935</v>
       </c>
       <c r="F22">
-        <v>1.031805390618237</v>
+        <v>1.031272540300293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052004893242952</v>
+        <v>1.051555039074109</v>
       </c>
       <c r="J22">
-        <v>1.032657710833417</v>
+        <v>1.032316446673584</v>
       </c>
       <c r="K22">
-        <v>1.041050353959969</v>
+        <v>1.040120092862801</v>
       </c>
       <c r="L22">
-        <v>1.035375835536661</v>
+        <v>1.035027683644527</v>
       </c>
       <c r="M22">
-        <v>1.046772054131277</v>
+        <v>1.046248936203097</v>
       </c>
       <c r="N22">
-        <v>1.014688609085571</v>
+        <v>1.016485230713267</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045589316335221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.045175306348626</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023135380710937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003401203619572</v>
+        <v>1.002941781640378</v>
       </c>
       <c r="D23">
-        <v>1.026955786901454</v>
+        <v>1.025896589914106</v>
       </c>
       <c r="E23">
-        <v>1.021244410021586</v>
+        <v>1.020799695449743</v>
       </c>
       <c r="F23">
-        <v>1.032820484763995</v>
+        <v>1.032202170863908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052427109293688</v>
+        <v>1.051909052820062</v>
       </c>
       <c r="J23">
-        <v>1.033337376838747</v>
+        <v>1.032897434438563</v>
       </c>
       <c r="K23">
-        <v>1.041710612459066</v>
+        <v>1.040670562640884</v>
       </c>
       <c r="L23">
-        <v>1.036103092959954</v>
+        <v>1.035666528726994</v>
       </c>
       <c r="M23">
-        <v>1.04747021622374</v>
+        <v>1.046862909269376</v>
       </c>
       <c r="N23">
-        <v>1.01491666389711</v>
+        <v>1.016464532389375</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046141860747784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.045661221578816</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023246721448089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00879836394863</v>
+        <v>1.00799225426119</v>
       </c>
       <c r="D24">
-        <v>1.030750987464934</v>
+        <v>1.029299450586609</v>
       </c>
       <c r="E24">
-        <v>1.02532021053814</v>
+        <v>1.024570381705498</v>
       </c>
       <c r="F24">
-        <v>1.036760216990305</v>
+        <v>1.035846624912126</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054041772517104</v>
+        <v>1.053286227610877</v>
       </c>
       <c r="J24">
-        <v>1.035961884626094</v>
+        <v>1.035186082453449</v>
       </c>
       <c r="K24">
-        <v>1.044258776426552</v>
+        <v>1.042830856632345</v>
       </c>
       <c r="L24">
-        <v>1.038916801522165</v>
+        <v>1.038179328770135</v>
       </c>
       <c r="M24">
-        <v>1.050171135555367</v>
+        <v>1.049272177911543</v>
       </c>
       <c r="N24">
-        <v>1.015797283185104</v>
+        <v>1.016573467583244</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048279437649208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.047567980176974</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023683669246113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014868784302107</v>
+        <v>1.013815624205144</v>
       </c>
       <c r="D25">
-        <v>1.035036297538419</v>
+        <v>1.033252660921797</v>
       </c>
       <c r="E25">
-        <v>1.029933393424</v>
+        <v>1.028960676855884</v>
       </c>
       <c r="F25">
-        <v>1.041220515670911</v>
+        <v>1.040075000268711</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055820093851709</v>
+        <v>1.054873686189021</v>
       </c>
       <c r="J25">
-        <v>1.038905910601357</v>
+        <v>1.037886818106448</v>
       </c>
       <c r="K25">
-        <v>1.047114020232099</v>
+        <v>1.045355806434147</v>
       </c>
       <c r="L25">
-        <v>1.042084146571857</v>
+        <v>1.041125455231117</v>
       </c>
       <c r="M25">
-        <v>1.053210944328785</v>
+        <v>1.052081499627397</v>
       </c>
       <c r="N25">
-        <v>1.01678504338056</v>
+        <v>1.017245219372675</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050685212986644</v>
+        <v>1.049791345097988</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024195964637859</v>
       </c>
     </row>
   </sheetData>
